--- a/database/6951/JobSummary.xlsx
+++ b/database/6951/JobSummary.xlsx
@@ -7,23 +7,17 @@
   </bookViews>
   <sheets>
     <sheet name="PRINTOUT" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Areas Summary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Areas Summary (By Material)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Spool Location" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Shorts by Scope" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Purchased by Scope" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="No Material by Scope" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Spool Missing Valve Only" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="List of Shorts" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Spools by Scope" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="List of Spools" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Discrepancies" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Areas Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Areas Summary (By Material)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Spool Location" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Shorts by Scope" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Purchased by Scope" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="No Material by Scope" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Spool Missing Valve Only" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Spools by Scope" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Discrepancies" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'List of Shorts'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'List of Spools'!$A$1:$Z$1</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="179017" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -31,7 +25,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -156,8 +150,11 @@
       <sz val="20"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill/>
     </fill>
@@ -258,6 +255,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE8E8E8"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d9d9d9"/>
+        <bgColor rgb="00d9d9d9"/>
       </patternFill>
     </fill>
   </fills>
@@ -496,16 +499,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -538,9 +538,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -576,18 +573,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -693,6 +678,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4061,13 +4047,13 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>12</row>
+      <row>14</row>
       <rowOff>142875</rowOff>
     </from>
     <to>
       <col>5</col>
       <colOff>0</colOff>
-      <row>33</row>
+      <row>35</row>
       <rowOff>53340</rowOff>
     </to>
     <graphicFrame>
@@ -4376,10 +4362,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4393,1025 +4379,2004 @@
     <col width="13.85546875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" customFormat="1" customHeight="1" s="53" thickBot="1">
-      <c r="A1" s="61" t="n"/>
-      <c r="B1" s="67" t="n"/>
-      <c r="C1" s="62" t="n"/>
-      <c r="D1" s="67" t="n"/>
-      <c r="E1" s="55" t="n"/>
-      <c r="F1" s="62" t="n"/>
-      <c r="G1" s="67" t="n"/>
-      <c r="H1" s="55" t="n"/>
-      <c r="I1" s="62" t="n"/>
-      <c r="J1" s="67" t="n"/>
-      <c r="K1" s="55" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customFormat="1" customHeight="1" s="51" thickTop="1">
-      <c r="A2" s="53" t="n"/>
-      <c r="B2" s="53" t="n"/>
-      <c r="C2" s="54" t="n"/>
-      <c r="D2" s="54" t="n"/>
-      <c r="E2" s="53" t="n"/>
-      <c r="F2" s="54" t="n"/>
-      <c r="G2" s="54" t="n"/>
-      <c r="H2" s="53" t="n"/>
-      <c r="I2" s="54" t="n"/>
-      <c r="J2" s="54" t="n"/>
-      <c r="K2" s="53" t="n"/>
+    <row r="1" ht="42.75" customFormat="1" customHeight="1" s="47" thickBot="1">
+      <c r="A1" s="55" t="inlineStr">
+        <is>
+          <t>EXXON: 6951</t>
+        </is>
+      </c>
+      <c r="B1" s="61" t="n"/>
+      <c r="C1" s="56" t="inlineStr">
+        <is>
+          <t>1701 Spools</t>
+        </is>
+      </c>
+      <c r="D1" s="61" t="n"/>
+      <c r="E1" s="49" t="n"/>
+      <c r="F1" s="56" t="inlineStr">
+        <is>
+          <t>1386 Workable</t>
+        </is>
+      </c>
+      <c r="G1" s="61" t="n"/>
+      <c r="H1" s="49" t="n"/>
+      <c r="I1" s="56" t="inlineStr">
+        <is>
+          <t>1384 Issued</t>
+        </is>
+      </c>
+      <c r="J1" s="61" t="n"/>
+      <c r="K1" s="49" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customFormat="1" customHeight="1" s="45" thickTop="1">
+      <c r="A2" s="47" t="n"/>
+      <c r="B2" s="47" t="n"/>
+      <c r="C2" s="48" t="n"/>
+      <c r="D2" s="48" t="n"/>
+      <c r="E2" s="47" t="n"/>
+      <c r="F2" s="48" t="n"/>
+      <c r="G2" s="48" t="n"/>
+      <c r="H2" s="47" t="n"/>
+      <c r="I2" s="48" t="n"/>
+      <c r="J2" s="48" t="n"/>
+      <c r="K2" s="47" t="n"/>
     </row>
     <row r="3" ht="24.75" customFormat="1" customHeight="1" s="1">
-      <c r="A3" s="63" t="inlineStr">
+      <c r="A3" s="57" t="inlineStr">
         <is>
           <t>SPOOLS BY SCOPE</t>
         </is>
       </c>
-      <c r="F3" s="21" t="n"/>
-      <c r="G3" s="63" t="inlineStr">
+      <c r="F3" s="19" t="n"/>
+      <c r="G3" s="57" t="inlineStr">
         <is>
           <t>TOTAL PURCHASED (ITEM QUANTITIES)</t>
         </is>
       </c>
     </row>
     <row r="4" ht="22.5" customFormat="1" customHeight="1" s="1">
-      <c r="A4" s="45" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>SPOOLS</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
+      <c r="B4" s="32" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="C4" s="32" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="D4" s="38" t="inlineStr">
+      <c r="D4" s="32" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E4" s="46" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="45" t="inlineStr">
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="39" t="inlineStr">
         <is>
           <t>ITEMS</t>
         </is>
       </c>
-      <c r="H4" s="38" t="inlineStr">
+      <c r="H4" s="32" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="I4" s="38" t="inlineStr">
+      <c r="I4" s="32" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="J4" s="38" t="inlineStr">
+      <c r="J4" s="32" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K4" s="46" t="inlineStr">
+      <c r="K4" s="40" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A5" s="56" t="inlineStr">
+      <c r="A5" s="50" t="inlineStr">
         <is>
           <t>Valves</t>
         </is>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>'Spools by Scope'!B4</f>
         <v/>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>'Spools by Scope'!C4</f>
         <v/>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>'Spools by Scope'!D4</f>
         <v/>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="54">
         <f>SUM(B5:D5)</f>
         <v/>
       </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="56" t="inlineStr">
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="50" t="inlineStr">
         <is>
           <t>Valves</t>
         </is>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>'Purchased by Scope'!B4</f>
         <v/>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f>'Purchased by Scope'!C4</f>
         <v/>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f>'Purchased by Scope'!D4</f>
         <v/>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="54">
         <f>SUM(H5:J5)</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A6" s="56" t="inlineStr">
+      <c r="A6" s="50" t="inlineStr">
         <is>
           <t>Flanges</t>
         </is>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>'Spools by Scope'!B5</f>
         <v/>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f>'Spools by Scope'!C5</f>
         <v/>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>'Spools by Scope'!D5</f>
         <v/>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="54">
         <f>SUM(B6:D6)</f>
         <v/>
       </c>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="56" t="inlineStr">
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="50" t="inlineStr">
         <is>
           <t>Flanges</t>
         </is>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>'Purchased by Scope'!B5</f>
         <v/>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f>'Purchased by Scope'!C5</f>
         <v/>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>'Purchased by Scope'!D5</f>
         <v/>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="54">
         <f>SUM(H6:J6)</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A7" s="56" t="inlineStr">
+      <c r="A7" s="50" t="inlineStr">
         <is>
           <t>Fittings</t>
         </is>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>'Spools by Scope'!B6</f>
         <v/>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>'Spools by Scope'!C6</f>
         <v/>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>'Spools by Scope'!D6</f>
         <v/>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="54">
         <f>SUM(B7:D7)</f>
         <v/>
       </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="56" t="inlineStr">
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="50" t="inlineStr">
         <is>
           <t>Fittings</t>
         </is>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f>'Purchased by Scope'!B6</f>
         <v/>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f>'Purchased by Scope'!C6</f>
         <v/>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>'Purchased by Scope'!D6</f>
         <v/>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="54">
         <f>SUM(H7:J7)</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A8" s="56" t="inlineStr">
+      <c r="A8" s="50" t="inlineStr">
         <is>
           <t>Pipe</t>
         </is>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>'Spools by Scope'!B7</f>
         <v/>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <f>'Spools by Scope'!C7</f>
         <v/>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f>'Spools by Scope'!D7</f>
         <v/>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="54">
         <f>SUM(B8:D8)</f>
         <v/>
       </c>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="56" t="inlineStr">
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="50" t="inlineStr">
         <is>
           <t>Supports</t>
         </is>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f>'Purchased by Scope'!B7</f>
         <v/>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f>'Purchased by Scope'!C7</f>
         <v/>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f>'Purchased by Scope'!D7</f>
         <v/>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="54">
         <f>SUM(H8:J8)</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A9" s="56" t="inlineStr">
+      <c r="A9" s="50" t="inlineStr">
         <is>
           <t>Supports</t>
         </is>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>'Spools by Scope'!B8</f>
         <v/>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>'Spools by Scope'!C8</f>
         <v/>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>'Spools by Scope'!D8</f>
         <v/>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="54">
         <f>SUM(B9:D9)</f>
         <v/>
       </c>
-      <c r="F9" s="6" t="n"/>
-      <c r="G9" s="42" t="inlineStr">
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="36" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="37">
         <f>SUM(H5:H8)</f>
         <v/>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="37">
         <f>SUM(I5:I8)</f>
         <v/>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="37">
         <f>SUM(J5:J8)</f>
         <v/>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="38">
         <f>SUM(K5:K8)</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A10" s="56" t="inlineStr">
+      <c r="A10" s="50" t="inlineStr">
         <is>
           <t>Issued</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="60">
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="54">
         <f>'Spools by Scope'!E9</f>
         <v/>
       </c>
-      <c r="F10" s="6" t="n"/>
-      <c r="G10" s="39" t="n"/>
-      <c r="H10" s="39" t="n"/>
-      <c r="I10" s="39" t="n"/>
-      <c r="J10" s="39" t="n"/>
-      <c r="K10" s="39" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="33" t="n"/>
+      <c r="H10" s="33" t="n"/>
+      <c r="I10" s="33" t="n"/>
+      <c r="J10" s="33" t="n"/>
+      <c r="K10" s="33" t="n"/>
     </row>
     <row r="11" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A11" s="56" t="inlineStr">
+      <c r="A11" s="50" t="inlineStr">
         <is>
           <t>Issued (Missing Items)</t>
         </is>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="60">
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="54">
         <f>'Spools by Scope'!E10</f>
         <v/>
       </c>
-      <c r="F11" s="6" t="n"/>
-      <c r="G11" s="57" t="inlineStr">
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="51" t="inlineStr">
         <is>
           <t>Pipe</t>
         </is>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="41">
         <f>'Purchased by Scope'!B10</f>
         <v/>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="41">
         <f>'Purchased by Scope'!C10</f>
         <v/>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="41">
         <f>'Purchased by Scope'!D10</f>
         <v/>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="42">
         <f>SUM(H11:J11)</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A12" s="56" t="inlineStr">
+      <c r="A12" s="50" t="inlineStr">
         <is>
           <t>Workable (Not Issued)</t>
         </is>
       </c>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="60" t="n"/>
-      <c r="F12" s="6" t="n"/>
-      <c r="G12" s="6" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="6" t="n"/>
-      <c r="J12" s="6" t="n"/>
-      <c r="K12" s="6" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="54">
+        <f>'Spools by Scope'!E11</f>
+        <v/>
+      </c>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
     </row>
     <row r="13" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A13" s="56" t="inlineStr">
+      <c r="A13" s="50" t="inlineStr">
         <is>
           <t>On Hold (No Shorts)</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="60" t="n"/>
-      <c r="F13" s="6" t="n"/>
-      <c r="G13" s="6" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="6" t="n"/>
-      <c r="J13" s="6" t="n"/>
-      <c r="K13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="54">
+        <f>'Spools by Scope'!E12</f>
+        <v/>
+      </c>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="5" t="n"/>
     </row>
     <row r="14" ht="18.75" customFormat="1" customHeight="1" s="1">
-      <c r="A14" s="40" t="inlineStr">
+      <c r="A14" s="34" t="inlineStr">
         <is>
           <t>Discrepancies</t>
         </is>
       </c>
-      <c r="B14" s="36" t="n"/>
-      <c r="C14" s="36" t="n"/>
-      <c r="D14" s="36" t="n"/>
-      <c r="E14" s="41">
-        <f>'Spools by Scope'!E11</f>
-        <v/>
-      </c>
-      <c r="F14" s="6" t="n"/>
-      <c r="G14" s="63" t="inlineStr">
+      <c r="B14" s="30" t="n"/>
+      <c r="C14" s="30" t="n"/>
+      <c r="D14" s="30" t="n"/>
+      <c r="E14" s="35">
+        <f>'Spools by Scope'!E13</f>
+        <v/>
+      </c>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="57" t="inlineStr">
         <is>
           <t>TOTAL NO MATERIAL (ITEM QUANTITIES)</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="22.5" customFormat="1" customHeight="1" s="17">
-      <c r="A15" s="42" t="inlineStr">
+    <row r="15" ht="22.5" customFormat="1" customHeight="1" s="15">
+      <c r="A15" s="36" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="37">
         <f>SUM(B5:B9)</f>
         <v/>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="37">
         <f>SUM(C5:C9)</f>
         <v/>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="37">
         <f>SUM(D5:D9)</f>
         <v/>
       </c>
-      <c r="E15" s="44">
-        <f>'Spools by Scope'!E12</f>
-        <v/>
-      </c>
-      <c r="F15" s="25" t="inlineStr">
+      <c r="E15" s="38">
+        <f>'Spools by Scope'!E14</f>
+        <v/>
+      </c>
+      <c r="F15" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G15" s="45" t="inlineStr">
+      <c r="G15" s="39" t="inlineStr">
         <is>
           <t>ITEMS</t>
         </is>
       </c>
-      <c r="H15" s="38" t="inlineStr">
+      <c r="H15" s="32" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="I15" s="38" t="inlineStr">
+      <c r="I15" s="32" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="J15" s="38" t="inlineStr">
+      <c r="J15" s="32" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K15" s="46" t="inlineStr">
+      <c r="K15" s="40" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
-      <c r="G16" s="56" t="inlineStr">
+      <c r="G16" s="50" t="inlineStr">
         <is>
           <t>Valves</t>
         </is>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f>'No Material by Scope'!B4</f>
         <v/>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f>'No Material by Scope'!C4</f>
         <v/>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f>'No Material by Scope'!D4</f>
         <v/>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="54">
         <f>SUM(H16:J16)</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="25.15" customFormat="1" customHeight="1" s="1">
-      <c r="A17" s="63" t="inlineStr">
+      <c r="A17" s="57" t="inlineStr">
         <is>
           <t>TOTAL SHORTS (ITEM QUANTITIES)</t>
         </is>
       </c>
-      <c r="F17" s="21" t="n"/>
-      <c r="G17" s="56" t="inlineStr">
+      <c r="F17" s="19" t="n"/>
+      <c r="G17" s="50" t="inlineStr">
         <is>
           <t>Flanges</t>
         </is>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f>'No Material by Scope'!B5</f>
         <v/>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f>'No Material by Scope'!C5</f>
         <v/>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f>'No Material by Scope'!D5</f>
         <v/>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="54">
         <f>SUM(H17:J17)</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="22.5" customFormat="1" customHeight="1" s="1">
-      <c r="A18" s="45" t="inlineStr">
+      <c r="A18" s="39" t="inlineStr">
         <is>
           <t>ITEMS</t>
         </is>
       </c>
-      <c r="B18" s="38" t="inlineStr">
+      <c r="B18" s="32" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="C18" s="38" t="inlineStr">
+      <c r="C18" s="32" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="D18" s="38" t="inlineStr">
+      <c r="D18" s="32" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E18" s="46" t="inlineStr">
+      <c r="E18" s="40" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="F18" s="21" t="n"/>
-      <c r="G18" s="56" t="inlineStr">
+      <c r="F18" s="19" t="n"/>
+      <c r="G18" s="50" t="inlineStr">
         <is>
           <t>Fittings</t>
         </is>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f>'No Material by Scope'!B6</f>
         <v/>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f>'No Material by Scope'!C6</f>
         <v/>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f>'No Material by Scope'!D6</f>
         <v/>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="54">
         <f>SUM(H18:J18)</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="18" customFormat="1" customHeight="1" s="1">
-      <c r="A19" s="56" t="inlineStr">
+      <c r="A19" s="50" t="inlineStr">
         <is>
           <t>Valves</t>
         </is>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f>'Shorts by Scope'!B4</f>
         <v/>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f>'Shorts by Scope'!C4</f>
         <v/>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <f>'Shorts by Scope'!D4</f>
         <v/>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="54">
         <f>SUM(B19:D19)</f>
         <v/>
       </c>
-      <c r="F19" s="21" t="n"/>
-      <c r="G19" s="56" t="inlineStr">
+      <c r="F19" s="19" t="n"/>
+      <c r="G19" s="50" t="inlineStr">
         <is>
           <t>Supports</t>
         </is>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f>'No Material by Scope'!B7</f>
         <v/>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <f>'No Material by Scope'!C7</f>
         <v/>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f>'No Material by Scope'!D7</f>
         <v/>
       </c>
-      <c r="K19" s="60">
+      <c r="K19" s="54">
         <f>SUM(H19:J19)</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="18" customFormat="1" customHeight="1" s="1">
-      <c r="A20" s="56" t="inlineStr">
+      <c r="A20" s="50" t="inlineStr">
         <is>
           <t>Flanges</t>
         </is>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <f>'Shorts by Scope'!B5</f>
         <v/>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <f>'Shorts by Scope'!C5</f>
         <v/>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f>'Shorts by Scope'!D5</f>
         <v/>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="54">
         <f>SUM(B20:D20)</f>
         <v/>
       </c>
-      <c r="F20" s="21" t="n"/>
-      <c r="G20" s="42" t="inlineStr">
+      <c r="F20" s="19" t="n"/>
+      <c r="G20" s="36" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="37">
         <f>SUM(H16:H19)</f>
         <v/>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="37">
         <f>SUM(I16:I19)</f>
         <v/>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="37">
         <f>SUM(J16:J19)</f>
         <v/>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="38">
         <f>SUM(K16:K19)</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="18" customFormat="1" customHeight="1" s="1">
-      <c r="A21" s="56" t="inlineStr">
+      <c r="A21" s="50" t="inlineStr">
         <is>
           <t>Fittings</t>
         </is>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>'Shorts by Scope'!B6</f>
         <v/>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f>'Shorts by Scope'!C6</f>
         <v/>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>'Shorts by Scope'!D6</f>
         <v/>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="54">
         <f>SUM(B21:D21)</f>
         <v/>
       </c>
-      <c r="F21" s="21" t="n"/>
-      <c r="G21" s="39" t="n"/>
-      <c r="H21" s="39" t="n"/>
-      <c r="I21" s="39" t="n"/>
-      <c r="J21" s="39" t="n"/>
-      <c r="K21" s="39" t="n"/>
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="33" t="n"/>
+      <c r="H21" s="33" t="n"/>
+      <c r="I21" s="33" t="n"/>
+      <c r="J21" s="33" t="n"/>
+      <c r="K21" s="33" t="n"/>
     </row>
     <row r="22" ht="18" customFormat="1" customHeight="1" s="1">
-      <c r="A22" s="56" t="inlineStr">
+      <c r="A22" s="50" t="inlineStr">
         <is>
           <t>Supports</t>
         </is>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>'Shorts by Scope'!B7</f>
         <v/>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f>'Shorts by Scope'!C7</f>
         <v/>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>'Shorts by Scope'!D7</f>
         <v/>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="54">
         <f>SUM(B22:D22)</f>
         <v/>
       </c>
-      <c r="F22" s="21" t="n"/>
-      <c r="G22" s="57" t="inlineStr">
+      <c r="F22" s="19" t="n"/>
+      <c r="G22" s="51" t="inlineStr">
         <is>
           <t>Pipe</t>
         </is>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="41">
         <f>'No Material by Scope'!B10</f>
         <v/>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="41">
         <f>'No Material by Scope'!C10</f>
         <v/>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="41">
         <f>'No Material by Scope'!D10</f>
         <v/>
       </c>
-      <c r="K22" s="48">
+      <c r="K22" s="42">
         <f>SUM(H22:J22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="21.6" customFormat="1" customHeight="1" s="17">
-      <c r="A23" s="42" t="inlineStr">
+    <row r="23" ht="21.6" customFormat="1" customHeight="1" s="15">
+      <c r="A23" s="36" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="37">
         <f>SUM(B19:B22)</f>
         <v/>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="37">
         <f>SUM(C19:C22)</f>
         <v/>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="37">
         <f>SUM(D19:D22)</f>
         <v/>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="38">
         <f>SUM(E19:E22)</f>
         <v/>
       </c>
-      <c r="F23" s="22" t="n"/>
+      <c r="F23" s="20" t="n"/>
     </row>
     <row r="24" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A24" s="39" t="n"/>
-      <c r="B24" s="39" t="n"/>
-      <c r="C24" s="39" t="n"/>
-      <c r="D24" s="39" t="n"/>
-      <c r="E24" s="39" t="n"/>
-      <c r="F24" s="23" t="n"/>
+      <c r="A24" s="33" t="n"/>
+      <c r="B24" s="33" t="n"/>
+      <c r="C24" s="33" t="n"/>
+      <c r="D24" s="33" t="n"/>
+      <c r="E24" s="33" t="n"/>
+      <c r="F24" s="21" t="n"/>
     </row>
     <row r="25" ht="23.25" customFormat="1" customHeight="1" s="1">
-      <c r="A25" s="57" t="inlineStr">
+      <c r="A25" s="51" t="inlineStr">
         <is>
           <t>Pipe</t>
         </is>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="41">
         <f>'Shorts by Scope'!B10</f>
         <v/>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="41">
         <f>'Shorts by Scope'!C10</f>
         <v/>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="41">
         <f>'Shorts by Scope'!D10</f>
         <v/>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="42">
         <f>SUM(B25:D25)</f>
         <v/>
       </c>
-      <c r="F25" s="23" t="n"/>
-      <c r="G25" s="63" t="inlineStr">
+      <c r="F25" s="21" t="n"/>
+      <c r="G25" s="57" t="inlineStr">
         <is>
           <t>SPOOLS MISSING VALVE ONLY</t>
         </is>
       </c>
     </row>
     <row r="26" ht="22.5" customFormat="1" customHeight="1" s="1">
-      <c r="A26" s="39" t="n"/>
-      <c r="B26" s="39" t="n"/>
-      <c r="C26" s="39" t="n"/>
-      <c r="D26" s="39" t="n"/>
-      <c r="E26" s="39" t="n"/>
-      <c r="F26" s="23" t="n"/>
-      <c r="G26" s="45" t="inlineStr">
+      <c r="A26" s="33" t="n"/>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="33" t="n"/>
+      <c r="E26" s="33" t="n"/>
+      <c r="F26" s="21" t="n"/>
+      <c r="G26" s="39" t="inlineStr">
         <is>
           <t>ITEMS</t>
         </is>
       </c>
-      <c r="H26" s="38" t="inlineStr">
+      <c r="H26" s="32" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="I26" s="38" t="inlineStr">
+      <c r="I26" s="32" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="J26" s="38" t="inlineStr">
+      <c r="J26" s="32" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K26" s="46" t="inlineStr">
+      <c r="K26" s="40" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="18.75" customFormat="1" customHeight="1" s="21">
-      <c r="A27" s="35" t="inlineStr">
+    <row r="27" ht="18.75" customFormat="1" customHeight="1" s="19">
+      <c r="A27" s="29" t="inlineStr">
         <is>
           <t>Not on Line List</t>
         </is>
       </c>
-      <c r="B27" s="36" t="n"/>
-      <c r="C27" s="36" t="n"/>
-      <c r="D27" s="36" t="n"/>
-      <c r="E27" s="34">
+      <c r="B27" s="30" t="n"/>
+      <c r="C27" s="30" t="n"/>
+      <c r="D27" s="30" t="n"/>
+      <c r="E27" s="28">
         <f>'Shorts by Scope'!E12</f>
         <v/>
       </c>
-      <c r="F27" s="37" t="n"/>
-      <c r="G27" s="58" t="inlineStr">
+      <c r="F27" s="31" t="n"/>
+      <c r="G27" s="52" t="inlineStr">
         <is>
           <t>Purchased</t>
         </is>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="43">
         <f>'Spool Missing Valve Only'!B3</f>
         <v/>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="43">
         <f>'Spool Missing Valve Only'!C3</f>
         <v/>
       </c>
-      <c r="J27" s="49">
+      <c r="J27" s="43">
         <f>'Spool Missing Valve Only'!D3</f>
         <v/>
       </c>
-      <c r="K27" s="50">
+      <c r="K27" s="44">
         <f>SUM(H27:J27)</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="33" customHeight="1">
-      <c r="A31" s="64" t="n"/>
+      <c r="A31" s="58" t="inlineStr">
+        <is>
+          <t>6951 Areas Summary</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="21" customFormat="1" customHeight="1" s="1">
-      <c r="A32" s="59" t="inlineStr">
+      <c r="A32" s="53" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="B32" s="59" t="inlineStr">
+      <c r="B32" s="53" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="C32" s="59" t="inlineStr">
+      <c r="C32" s="53" t="inlineStr">
         <is>
           <t>Total Spools</t>
         </is>
       </c>
-      <c r="D32" s="59" t="inlineStr">
+      <c r="D32" s="53" t="inlineStr">
         <is>
           <t>On Hold</t>
         </is>
       </c>
-      <c r="E32" s="59" t="inlineStr">
+      <c r="E32" s="53" t="inlineStr">
         <is>
           <t>Workable</t>
         </is>
       </c>
-      <c r="F32" s="59" t="inlineStr">
+      <c r="F32" s="53" t="inlineStr">
         <is>
           <t>Not Workable</t>
         </is>
       </c>
-      <c r="G32" s="59" t="inlineStr">
+      <c r="G32" s="53" t="inlineStr">
         <is>
           <t>Welded Out</t>
         </is>
       </c>
-      <c r="H32" s="59" t="inlineStr">
+      <c r="H32" s="53" t="inlineStr">
         <is>
           <t>Remaining to Weld Out</t>
         </is>
       </c>
-      <c r="I32" s="59" t="inlineStr">
+      <c r="I32" s="53" t="inlineStr">
         <is>
           <t>Shipped To Paint</t>
         </is>
       </c>
-      <c r="J32" s="59" t="inlineStr">
+      <c r="J32" s="53" t="inlineStr">
         <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="K32" s="59" t="inlineStr">
+      <c r="K32" s="53" t="inlineStr">
         <is>
           <t>Remaining to Deliver</t>
         </is>
       </c>
-      <c r="L32" s="59" t="inlineStr">
+      <c r="L32" s="53" t="inlineStr">
         <is>
           <t>Workable %</t>
         </is>
       </c>
-      <c r="M32" s="59" t="inlineStr">
+      <c r="M32" s="53" t="inlineStr">
         <is>
           <t>Weld Out %</t>
         </is>
       </c>
-      <c r="N32" s="59" t="inlineStr">
+      <c r="N32" s="53" t="inlineStr">
         <is>
           <t>Delivered %</t>
         </is>
       </c>
     </row>
-    <row r="33" customFormat="1" s="1"/>
-    <row r="34" customFormat="1" s="1"/>
-    <row r="35" customFormat="1" s="1"/>
-    <row r="36" customFormat="1" s="1"/>
-    <row r="37" customFormat="1" s="1"/>
-    <row r="38" customFormat="1" s="1"/>
-    <row r="39" customFormat="1" s="1"/>
-    <row r="40" customFormat="1" s="1"/>
-    <row r="41" customFormat="1" s="1"/>
-    <row r="42" customFormat="1" s="1"/>
-    <row r="43" customFormat="1" s="1"/>
-    <row r="44" customFormat="1" s="1"/>
-    <row r="45" customFormat="1" s="1"/>
-    <row r="46" customFormat="1" s="1"/>
-    <row r="47" customFormat="1" s="1"/>
-    <row r="48" customFormat="1" s="1"/>
-    <row r="49" customFormat="1" s="1"/>
-    <row r="50" customFormat="1" s="1"/>
-    <row r="51" customFormat="1" s="1"/>
-    <row r="52" customFormat="1" s="1"/>
-    <row r="53" customFormat="1" s="1"/>
-    <row r="54" customFormat="1" s="1"/>
-    <row r="55" customFormat="1" s="1"/>
-    <row r="56" customFormat="1" s="1"/>
-    <row r="57" customFormat="1" s="1"/>
-    <row r="58" customFormat="1" s="1"/>
-    <row r="59" customFormat="1" s="1"/>
-    <row r="60" customFormat="1" s="1"/>
-    <row r="61" customFormat="1" s="1"/>
-    <row r="62" customFormat="1" s="1"/>
-    <row r="63" customFormat="1" s="1"/>
-    <row r="64" customFormat="1" s="1"/>
-    <row r="65" customFormat="1" s="1"/>
-    <row r="66" customFormat="1" s="1"/>
-    <row r="67" customFormat="1" s="1"/>
-    <row r="68" customFormat="1" s="1"/>
-    <row r="69" customFormat="1" s="1"/>
-    <row r="70" customFormat="1" s="1"/>
-    <row r="71" customFormat="1" s="1"/>
-    <row r="72" customFormat="1" s="1"/>
-    <row r="73" customFormat="1" s="1"/>
-    <row r="74" customFormat="1" s="1"/>
-    <row r="75" customFormat="1" s="1"/>
-    <row r="76" customFormat="1" s="1"/>
-    <row r="77" customFormat="1" s="1"/>
-    <row r="78" customFormat="1" s="1"/>
-    <row r="79" customFormat="1" s="1"/>
-    <row r="80" customFormat="1" s="1"/>
-    <row r="81" customFormat="1" s="1"/>
-    <row r="82" customFormat="1" s="1"/>
-    <row r="83" customFormat="1" s="1"/>
-    <row r="84" customFormat="1" s="1"/>
-    <row r="85" customFormat="1" s="1"/>
-    <row r="86" customFormat="1" s="1"/>
-    <row r="87" customFormat="1" s="1"/>
-    <row r="88" customFormat="1" s="1"/>
-    <row r="89" customFormat="1" s="1"/>
-    <row r="90" customFormat="1" s="1"/>
-    <row r="91" customFormat="1" s="1"/>
-    <row r="92" customFormat="1" s="1"/>
-    <row r="93" customFormat="1" s="1"/>
-    <row r="94" customFormat="1" s="1"/>
-    <row r="95" customFormat="1" s="1"/>
-    <row r="96" customFormat="1" s="1"/>
-    <row r="97" customFormat="1" s="1"/>
-    <row r="98" customFormat="1" s="1"/>
-    <row r="99" customFormat="1" s="1"/>
-    <row r="100" customFormat="1" s="1"/>
-    <row r="101" customFormat="1" s="1"/>
+    <row r="33" customFormat="1" s="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>16B</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>35</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>32</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>33</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>91.43%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>88.57%</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>5.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" customFormat="1" s="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>14A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>27</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>22</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>21</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>25</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>81.48%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>81.48%</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" customFormat="1" s="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20B</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>58</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>47</v>
+      </c>
+      <c r="F35" t="n">
+        <v>11</v>
+      </c>
+      <c r="G35" t="n">
+        <v>46</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12</v>
+      </c>
+      <c r="I35" t="n">
+        <v>46</v>
+      </c>
+      <c r="J35" t="n">
+        <v>14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>44</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>81.03%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>79.31%</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>24.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" customFormat="1" s="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>15C</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>14</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>92.86%</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>92.86%</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" customFormat="1" s="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>15B</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>28</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>28</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>22</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>90.32%</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>90.32%</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>70.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" customFormat="1" s="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>53</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>47</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>46</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11</v>
+      </c>
+      <c r="J38" t="n">
+        <v>34</v>
+      </c>
+      <c r="K38" t="n">
+        <v>19</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>88.68%</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>86.79%</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>64.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>31A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>151</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>135</v>
+      </c>
+      <c r="F39" t="n">
+        <v>16</v>
+      </c>
+      <c r="G39" t="n">
+        <v>107</v>
+      </c>
+      <c r="H39" t="n">
+        <v>44</v>
+      </c>
+      <c r="I39" t="n">
+        <v>88</v>
+      </c>
+      <c r="J39" t="n">
+        <v>16</v>
+      </c>
+      <c r="K39" t="n">
+        <v>135</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>89.40%</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>70.86%</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>10.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>14B</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>388</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>378</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="n">
+        <v>361</v>
+      </c>
+      <c r="H40" t="n">
+        <v>27</v>
+      </c>
+      <c r="I40" t="n">
+        <v>322</v>
+      </c>
+      <c r="J40" t="n">
+        <v>114</v>
+      </c>
+      <c r="K40" t="n">
+        <v>274</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>97.42%</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>93.04%</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>29.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>13F</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>259</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>153</v>
+      </c>
+      <c r="F41" t="n">
+        <v>106</v>
+      </c>
+      <c r="G41" t="n">
+        <v>135</v>
+      </c>
+      <c r="H41" t="n">
+        <v>124</v>
+      </c>
+      <c r="I41" t="n">
+        <v>117</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>257</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>59.07%</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>52.12%</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>13E</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>64</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12</v>
+      </c>
+      <c r="G42" t="n">
+        <v>43</v>
+      </c>
+      <c r="H42" t="n">
+        <v>21</v>
+      </c>
+      <c r="I42" t="n">
+        <v>38</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>62</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>81.25%</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>67.19%</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>3.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>30B</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>59</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>52</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>50</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>24</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>56</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>88.14%</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>84.75%</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>5.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>13H</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>46</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>39</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>39</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>38</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>46</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>84.78%</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>84.78%</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>13G</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>14</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>20</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>13A</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>82</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>68</v>
+      </c>
+      <c r="F46" t="n">
+        <v>14</v>
+      </c>
+      <c r="G46" t="n">
+        <v>65</v>
+      </c>
+      <c r="H46" t="n">
+        <v>17</v>
+      </c>
+      <c r="I46" t="n">
+        <v>53</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>77</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>82.93%</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>79.27%</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>6.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>13C</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>242</v>
+      </c>
+      <c r="D47" t="n">
+        <v>18</v>
+      </c>
+      <c r="E47" t="n">
+        <v>166</v>
+      </c>
+      <c r="F47" t="n">
+        <v>76</v>
+      </c>
+      <c r="G47" t="n">
+        <v>140</v>
+      </c>
+      <c r="H47" t="n">
+        <v>102</v>
+      </c>
+      <c r="I47" t="n">
+        <v>121</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>234</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>68.60%</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>57.85%</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>3.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>13D</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>71</v>
+      </c>
+      <c r="D48" t="n">
+        <v>11</v>
+      </c>
+      <c r="E48" t="n">
+        <v>49</v>
+      </c>
+      <c r="F48" t="n">
+        <v>22</v>
+      </c>
+      <c r="G48" t="n">
+        <v>39</v>
+      </c>
+      <c r="H48" t="n">
+        <v>32</v>
+      </c>
+      <c r="I48" t="n">
+        <v>33</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>71</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>69.01%</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>54.93%</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>13B</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>66</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>62</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>42</v>
+      </c>
+      <c r="H49" t="n">
+        <v>24</v>
+      </c>
+      <c r="I49" t="n">
+        <v>29</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>60</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>93.94%</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>35</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>25</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>35</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>82.86%</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1">
+      <c r="A51" s="62" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="B51" s="62" t="n"/>
+      <c r="C51" s="62" t="n">
+        <v>1701</v>
+      </c>
+      <c r="D51" s="62" t="n">
+        <v>52</v>
+      </c>
+      <c r="E51" s="62" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F51" s="62" t="n">
+        <v>315</v>
+      </c>
+      <c r="G51" s="62" t="n">
+        <v>1246</v>
+      </c>
+      <c r="H51" s="62" t="n">
+        <v>455</v>
+      </c>
+      <c r="I51" s="62" t="n">
+        <v>993</v>
+      </c>
+      <c r="J51" s="62" t="n">
+        <v>240</v>
+      </c>
+      <c r="K51" s="62" t="n">
+        <v>1461</v>
+      </c>
+      <c r="L51" s="62" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="M51" s="62" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="N51" s="62" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A31:N31"/>
@@ -5433,554 +6398,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" style="31" min="1" max="1"/>
-    <col width="20" customWidth="1" style="31" min="2" max="2"/>
-    <col width="30" customWidth="1" style="31" min="3" max="3"/>
-    <col width="20" customWidth="1" style="31" min="4" max="4"/>
-    <col width="28" customWidth="1" style="31" min="5" max="5"/>
-    <col width="21" customWidth="1" style="31" min="6" max="7"/>
-    <col width="13.85546875" customWidth="1" style="31" min="8" max="8"/>
-    <col width="9.7109375" customWidth="1" style="31" min="9" max="11"/>
-    <col width="9.140625" customWidth="1" style="31" min="12" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="21" customFormat="1" customHeight="1" s="31">
-      <c r="A1" s="29" t="inlineStr">
-        <is>
-          <t>Spool</t>
-        </is>
-      </c>
-      <c r="B1" s="29" t="inlineStr">
-        <is>
-          <t>Scope</t>
-        </is>
-      </c>
-      <c r="C1" s="29" t="inlineStr">
-        <is>
-          <t>Tag #</t>
-        </is>
-      </c>
-      <c r="D1" s="29" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="E1" s="29" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="F1" s="29" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="29" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="H1" s="29" t="inlineStr">
-        <is>
-          <t>Priorty</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="24" customWidth="1" style="1" min="1" max="5"/>
-    <col width="9.140625" customWidth="1" style="1" min="6" max="8"/>
-    <col width="43" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="43" customWidth="1" style="1" min="11" max="11"/>
-    <col width="9.140625" customWidth="1" style="1" min="12" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1">
-      <c r="B1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <f>F2</f>
-        <v/>
-      </c>
-      <c r="D1" s="4">
-        <f>F4</f>
-        <v/>
-      </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="21" t="n"/>
-    </row>
-    <row r="2" ht="25.15" customHeight="1">
-      <c r="A2" s="66" t="inlineStr">
-        <is>
-          <t>* What item is holding up the spool and who is responsible for it?</t>
-        </is>
-      </c>
-      <c r="B2" s="68" t="n"/>
-      <c r="C2" s="68" t="n"/>
-      <c r="D2" s="68" t="n"/>
-      <c r="E2" s="68" t="n"/>
-      <c r="F2" s="21" t="n"/>
-    </row>
-    <row r="3" ht="24" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>SPOOLS</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Performance</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="n"/>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Valves</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="24">
-        <f>SUM(B4:D4)</f>
-        <v/>
-      </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="6" t="n"/>
-      <c r="J4" s="6" t="n"/>
-      <c r="K4" s="6" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>Flanges</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="24">
-        <f>SUM(B5:D5)</f>
-        <v/>
-      </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="6" t="n"/>
-      <c r="J5" s="6" t="n"/>
-      <c r="K5" s="6" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>Fittings</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="24">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="6" t="n"/>
-      <c r="J6" s="6" t="n"/>
-      <c r="K6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>Pipe</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="24">
-        <f>SUM(B7:D7)</f>
-        <v/>
-      </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="6" t="n"/>
-      <c r="H7" s="6" t="n"/>
-      <c r="I7" s="6" t="n"/>
-      <c r="J7" s="6" t="n"/>
-      <c r="K7" s="6" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>Supports</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="24">
-        <f>SUM(B8:D8)</f>
-        <v/>
-      </c>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="6" t="n"/>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="6" t="n"/>
-      <c r="J8" s="6" t="n"/>
-      <c r="K8" s="6" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>Issued</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="24">
-        <f>SUM(B9:D9)</f>
-        <v/>
-      </c>
-      <c r="F9" s="6" t="n"/>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="6" t="n"/>
-      <c r="J9" s="6" t="n"/>
-      <c r="K9" s="6" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>Workable (Not Issued)</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="24">
-        <f>SUM(B10:D10)</f>
-        <v/>
-      </c>
-      <c r="F10" s="6" t="n"/>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="6" t="n"/>
-      <c r="J10" s="6" t="n"/>
-      <c r="K10" s="6" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="35" t="inlineStr">
-        <is>
-          <t>Discrepancies</t>
-        </is>
-      </c>
-      <c r="B11" s="36" t="n"/>
-      <c r="C11" s="36" t="n"/>
-      <c r="D11" s="36" t="n"/>
-      <c r="E11" s="34">
-        <f>ABS(E12-SUM(E4:E10))</f>
-        <v/>
-      </c>
-      <c r="F11" s="6" t="n"/>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="6" t="n"/>
-      <c r="I11" s="6" t="n"/>
-      <c r="J11" s="6" t="n"/>
-      <c r="K11" s="6" t="n"/>
-    </row>
-    <row r="12" ht="22.5" customFormat="1" customHeight="1" s="17">
-      <c r="A12" s="19" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B12" s="20">
-        <f>SUM(B4:B8)</f>
-        <v/>
-      </c>
-      <c r="C12" s="20">
-        <f>SUM(C4:C8)</f>
-        <v/>
-      </c>
-      <c r="D12" s="20">
-        <f>SUM(D4:D8)</f>
-        <v/>
-      </c>
-      <c r="E12" s="26" t="n"/>
-      <c r="F12" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G12" s="25" t="n"/>
-      <c r="H12" s="25" t="n"/>
-      <c r="I12" s="25" t="n"/>
-      <c r="J12" s="25" t="n"/>
-      <c r="K12" s="25" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
-      <c r="F13" s="6" t="n"/>
-      <c r="G13" s="6" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="6" t="n"/>
-      <c r="J13" s="6" t="n"/>
-      <c r="K13" s="6" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="18.28515625" defaultRowHeight="15"/>
-  <cols>
-    <col width="12.7109375" customWidth="1" style="15" min="1" max="1"/>
-    <col width="15.85546875" customWidth="1" style="31" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="31" min="3" max="3"/>
-    <col width="13.85546875" customWidth="1" style="31" min="4" max="4"/>
-    <col width="15.5703125" bestFit="1" customWidth="1" style="31" min="5" max="5"/>
-    <col width="11.42578125" customWidth="1" style="31" min="6" max="6"/>
-    <col width="15.5703125" customWidth="1" style="31" min="7" max="7"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="31" min="8" max="8"/>
-    <col width="16.7109375" customWidth="1" style="31" min="9" max="10"/>
-    <col width="16.140625" customWidth="1" style="31" min="11" max="11"/>
-    <col width="17" customWidth="1" style="31" min="12" max="12"/>
-    <col width="16.5703125" customWidth="1" style="31" min="13" max="13"/>
-    <col width="18.28515625" customWidth="1" style="31" min="14" max="14"/>
-    <col width="24.85546875" customWidth="1" style="31" min="15" max="15"/>
-    <col width="15.28515625" customWidth="1" style="31" min="16" max="16"/>
-    <col width="16.7109375" customWidth="1" style="31" min="17" max="17"/>
-    <col width="18.28515625" customWidth="1" style="31" min="18" max="18"/>
-    <col width="19" customWidth="1" style="31" min="19" max="19"/>
-    <col width="24.140625" customWidth="1" style="31" min="20" max="20"/>
-    <col width="21.85546875" customWidth="1" style="1" min="21" max="23"/>
-    <col width="22.85546875" customWidth="1" style="1" min="24" max="24"/>
-    <col width="16.28515625" customWidth="1" style="31" min="25" max="25"/>
-    <col width="12.85546875" customWidth="1" style="31" min="26" max="26"/>
-    <col width="18.28515625" customWidth="1" style="31" min="27" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.25" customFormat="1" customHeight="1" s="31">
-      <c r="A1" s="29" t="inlineStr">
-        <is>
-          <t>Spool</t>
-        </is>
-      </c>
-      <c r="B1" s="29" t="inlineStr">
-        <is>
-          <t>Multiplier</t>
-        </is>
-      </c>
-      <c r="C1" s="29" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="D1" s="29" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="E1" s="29" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="F1" s="33" t="inlineStr">
-        <is>
-          <t>Shop</t>
-        </is>
-      </c>
-      <c r="G1" s="33" t="inlineStr">
-        <is>
-          <t>Lifespan</t>
-        </is>
-      </c>
-      <c r="H1" s="29" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="I1" s="29" t="inlineStr">
-        <is>
-          <t>Dormant</t>
-        </is>
-      </c>
-      <c r="J1" s="33" t="inlineStr">
-        <is>
-          <t>On Hold</t>
-        </is>
-      </c>
-      <c r="K1" s="29" t="inlineStr">
-        <is>
-          <t>Workable</t>
-        </is>
-      </c>
-      <c r="L1" s="29" t="inlineStr">
-        <is>
-          <t>Issued</t>
-        </is>
-      </c>
-      <c r="M1" s="29" t="inlineStr">
-        <is>
-          <t>Pulled</t>
-        </is>
-      </c>
-      <c r="N1" s="29" t="inlineStr">
-        <is>
-          <t>Welded Out</t>
-        </is>
-      </c>
-      <c r="O1" s="29" t="inlineStr">
-        <is>
-          <t>Shipped to Coating</t>
-        </is>
-      </c>
-      <c r="P1" s="29" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="Q1" s="33" t="inlineStr">
-        <is>
-          <t>Total Pipe</t>
-        </is>
-      </c>
-      <c r="R1" s="33" t="inlineStr">
-        <is>
-          <t>Total Items</t>
-        </is>
-      </c>
-      <c r="S1" s="33" t="inlineStr">
-        <is>
-          <t>Missing Pipe</t>
-        </is>
-      </c>
-      <c r="T1" s="33" t="inlineStr">
-        <is>
-          <t>Missing Items (Ea.)</t>
-        </is>
-      </c>
-      <c r="U1" s="29" t="inlineStr">
-        <is>
-          <t>Missing Valves</t>
-        </is>
-      </c>
-      <c r="V1" s="29" t="inlineStr">
-        <is>
-          <t>Missing Flanges</t>
-        </is>
-      </c>
-      <c r="W1" s="29" t="inlineStr">
-        <is>
-          <t>Missing Fittings</t>
-        </is>
-      </c>
-      <c r="X1" s="29" t="inlineStr">
-        <is>
-          <t>Missing Supports</t>
-        </is>
-      </c>
-      <c r="Y1" s="29" t="inlineStr">
-        <is>
-          <t>Hold Item</t>
-        </is>
-      </c>
-      <c r="Z1" s="29" t="inlineStr">
-        <is>
-          <t>Scope</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:Z1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet7">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5998,23 +6415,23 @@
     <col width="12.85546875" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customFormat="1" customHeight="1" s="16">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="20.25" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="25" t="inlineStr">
         <is>
           <t>In Forecast (Issued)</t>
         </is>
       </c>
-      <c r="B1" s="29" t="inlineStr">
+      <c r="B1" s="25" t="inlineStr">
         <is>
           <t>Not In Forecast (Not-Issued)</t>
         </is>
       </c>
-      <c r="C1" s="33" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>In Forecast (Not in Line List)</t>
         </is>
       </c>
-      <c r="D1" s="33" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>PM In Status Report (Not in Line List)</t>
         </is>
@@ -6032,16 +6449,1117 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Areas Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Total Spools</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>On Hold</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Workable</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Not Workable</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Welded Out</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Remaining to Weld Out</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Shipped To Paint</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Remaining to Deliver</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Workable %</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Weld Out %</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Delivered %</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>16B</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>91.43%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>88.57%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>5.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>81.48%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>81.48%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20B</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>46</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>81.03%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>79.31%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>24.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15C</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>92.86%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>92.86%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15B</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>28</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>90.32%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>90.32%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>70.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>53</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>47</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>34</v>
+      </c>
+      <c r="K8" t="n">
+        <v>19</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>88.68%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>86.79%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>64.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>31A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>151</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>135</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" t="n">
+        <v>107</v>
+      </c>
+      <c r="H9" t="n">
+        <v>44</v>
+      </c>
+      <c r="I9" t="n">
+        <v>88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16</v>
+      </c>
+      <c r="K9" t="n">
+        <v>135</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>89.40%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>70.86%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>10.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14B</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>388</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>378</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>361</v>
+      </c>
+      <c r="H10" t="n">
+        <v>27</v>
+      </c>
+      <c r="I10" t="n">
+        <v>322</v>
+      </c>
+      <c r="J10" t="n">
+        <v>114</v>
+      </c>
+      <c r="K10" t="n">
+        <v>274</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>97.42%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>93.04%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>29.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13F</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>259</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>153</v>
+      </c>
+      <c r="F11" t="n">
+        <v>106</v>
+      </c>
+      <c r="G11" t="n">
+        <v>135</v>
+      </c>
+      <c r="H11" t="n">
+        <v>124</v>
+      </c>
+      <c r="I11" t="n">
+        <v>117</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>257</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>59.07%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>52.12%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13E</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>64</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>52</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>43</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21</v>
+      </c>
+      <c r="I12" t="n">
+        <v>38</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>62</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>81.25%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>67.19%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>30B</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>59</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>52</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>56</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>88.14%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>84.75%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>5.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13H</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>46</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>39</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>38</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>46</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>84.78%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>84.78%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13G</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13A</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>82</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>68</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>65</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17</v>
+      </c>
+      <c r="I16" t="n">
+        <v>53</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>77</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>82.93%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>79.27%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>6.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13C</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>242</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18</v>
+      </c>
+      <c r="E17" t="n">
+        <v>166</v>
+      </c>
+      <c r="F17" t="n">
+        <v>76</v>
+      </c>
+      <c r="G17" t="n">
+        <v>140</v>
+      </c>
+      <c r="H17" t="n">
+        <v>102</v>
+      </c>
+      <c r="I17" t="n">
+        <v>121</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>234</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>68.60%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>57.85%</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>3.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13D</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>71</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11</v>
+      </c>
+      <c r="E18" t="n">
+        <v>49</v>
+      </c>
+      <c r="F18" t="n">
+        <v>22</v>
+      </c>
+      <c r="G18" t="n">
+        <v>39</v>
+      </c>
+      <c r="H18" t="n">
+        <v>32</v>
+      </c>
+      <c r="I18" t="n">
+        <v>33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>71</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>69.01%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>54.93%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13B</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>66</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>62</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>42</v>
+      </c>
+      <c r="H19" t="n">
+        <v>24</v>
+      </c>
+      <c r="I19" t="n">
+        <v>29</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>60</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>93.94%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>35</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>82.86%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="62" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="B21" s="62" t="n"/>
+      <c r="C21" s="62" t="n">
+        <v>1701</v>
+      </c>
+      <c r="D21" s="62" t="n">
+        <v>52</v>
+      </c>
+      <c r="E21" s="62" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F21" s="62" t="n">
+        <v>315</v>
+      </c>
+      <c r="G21" s="62" t="n">
+        <v>1246</v>
+      </c>
+      <c r="H21" s="62" t="n">
+        <v>455</v>
+      </c>
+      <c r="I21" s="62" t="n">
+        <v>993</v>
+      </c>
+      <c r="J21" s="62" t="n">
+        <v>240</v>
+      </c>
+      <c r="K21" s="62" t="n">
+        <v>1461</v>
+      </c>
+      <c r="L21" s="62" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="M21" s="62" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="N21" s="62" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6051,37 +7569,2426 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CS Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Priority #</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Total Spools</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>On Hold</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Workable</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Not Workable</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Welded Out</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Remaining to Weld Out</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Shipped To Paint</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Remaining to Deliver</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Workable %</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Weld Out %</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Delivered %</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>13G</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20B</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>46</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>81.03%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>79.31%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>24.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>66</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>63</v>
+      </c>
+      <c r="H5" t="n">
+        <v>17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>53</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>82.50%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>78.75%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>65.00%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15B</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>18.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15C</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>62.96%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16B</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>23</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>86.96%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>82.61%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13B</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>66</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>42</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>93.94%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13E</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>64</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>52</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>43</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21</v>
+      </c>
+      <c r="I12" t="n">
+        <v>38</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>62</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>81.25%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>67.19%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>22</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>25</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>81.48%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>81.48%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13D</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>57</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>48</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>38</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19</v>
+      </c>
+      <c r="I14" t="n">
+        <v>32</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>57</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>84.21%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13F</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>194</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>108</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86</v>
+      </c>
+      <c r="G15" t="n">
+        <v>92</v>
+      </c>
+      <c r="H15" t="n">
+        <v>102</v>
+      </c>
+      <c r="I15" t="n">
+        <v>81</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>192</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>55.67%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>47.42%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13H</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>43</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>39</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>39</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>38</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>43</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>90.70%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>90.70%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>30B</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>51</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>44</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>42</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>48</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>86.27%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>82.35%</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>5.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>31A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>148</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>132</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>104</v>
+      </c>
+      <c r="H18" t="n">
+        <v>44</v>
+      </c>
+      <c r="I18" t="n">
+        <v>88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13</v>
+      </c>
+      <c r="K18" t="n">
+        <v>135</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>89.19%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>70.27%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>8.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13C</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>151</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>129</v>
+      </c>
+      <c r="F19" t="n">
+        <v>22</v>
+      </c>
+      <c r="G19" t="n">
+        <v>103</v>
+      </c>
+      <c r="H19" t="n">
+        <v>48</v>
+      </c>
+      <c r="I19" t="n">
+        <v>93</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>144</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>85.43%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>68.21%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>4.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14B</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>360</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>350</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>334</v>
+      </c>
+      <c r="H20" t="n">
+        <v>26</v>
+      </c>
+      <c r="I20" t="n">
+        <v>322</v>
+      </c>
+      <c r="J20" t="n">
+        <v>89</v>
+      </c>
+      <c r="K20" t="n">
+        <v>271</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>97.22%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>92.78%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>24.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="62" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="B21" s="62" t="n"/>
+      <c r="C21" s="62" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D21" s="62" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" s="62" t="n">
+        <v>1177</v>
+      </c>
+      <c r="F21" s="62" t="n">
+        <v>223</v>
+      </c>
+      <c r="G21" s="62" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H21" s="62" t="n">
+        <v>360</v>
+      </c>
+      <c r="I21" s="62" t="n">
+        <v>928</v>
+      </c>
+      <c r="J21" s="62" t="n">
+        <v>144</v>
+      </c>
+      <c r="K21" s="62" t="n">
+        <v>1256</v>
+      </c>
+      <c r="L21" s="62" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="M21" s="62" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="N21" s="62" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SS Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Priority #</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Total Spools</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>On Hold</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Workable</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Not Workable</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Welded Out</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Remaining to Weld Out</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Shipped To Paint</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Remaining to Deliver</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Workable %</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Weld Out %</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Delivered %</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>13G</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>13A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>16A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>12</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>33</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>33</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>33</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>33</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>15B</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>20</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>20</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>15C</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>10</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31A</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>13F</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>35</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>35</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>88.57%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>88.57%</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>13C</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>48</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>30</v>
+      </c>
+      <c r="F34" t="n">
+        <v>18</v>
+      </c>
+      <c r="G34" t="n">
+        <v>30</v>
+      </c>
+      <c r="H34" t="n">
+        <v>18</v>
+      </c>
+      <c r="I34" t="n">
+        <v>23</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>47</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>14B</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>28</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>28</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>27</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>96.43%</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>89.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>30B</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="62" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="B37" s="62" t="n"/>
+      <c r="C37" s="62" t="n">
+        <v>209</v>
+      </c>
+      <c r="D37" s="62" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="62" t="n">
+        <v>187</v>
+      </c>
+      <c r="F37" s="62" t="n">
+        <v>22</v>
+      </c>
+      <c r="G37" s="62" t="n">
+        <v>186</v>
+      </c>
+      <c r="H37" s="62" t="n">
+        <v>23</v>
+      </c>
+      <c r="I37" s="62" t="n">
+        <v>47</v>
+      </c>
+      <c r="J37" s="62" t="n">
+        <v>96</v>
+      </c>
+      <c r="K37" s="62" t="n">
+        <v>113</v>
+      </c>
+      <c r="L37" s="62" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="M37" s="62" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="N37" s="62" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>P5 Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Priority #</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Total Spools</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>On Hold</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Workable</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Not Workable</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Welded Out</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Remaining to Weld Out</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Shipped To Paint</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Remaining to Deliver</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Workable %</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Weld Out %</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Delivered %</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>13G</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>13D</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>14</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>13</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>13</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>14</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>13F</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>30</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16</v>
+      </c>
+      <c r="G43" t="n">
+        <v>12</v>
+      </c>
+      <c r="H43" t="n">
+        <v>18</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>30</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>46.67%</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>13C</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>36</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>36</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>43</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>16.28%</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>16.28%</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="62" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="B45" s="62" t="n"/>
+      <c r="C45" s="62" t="n">
+        <v>89</v>
+      </c>
+      <c r="D45" s="62" t="n">
+        <v>37</v>
+      </c>
+      <c r="E45" s="62" t="n">
+        <v>22</v>
+      </c>
+      <c r="F45" s="62" t="n">
+        <v>67</v>
+      </c>
+      <c r="G45" s="62" t="n">
+        <v>20</v>
+      </c>
+      <c r="H45" s="62" t="n">
+        <v>69</v>
+      </c>
+      <c r="I45" s="62" t="n">
+        <v>18</v>
+      </c>
+      <c r="J45" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="62" t="n">
+        <v>89</v>
+      </c>
+      <c r="L45" s="62" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="M45" s="62" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="N45" s="62" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C-276 Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Priority #</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Total Spools</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>On Hold</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Workable</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Not Workable</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Welded Out</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Remaining to Weld Out</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Shipped To Paint</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Remaining to Deliver</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Workable %</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Weld Out %</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Delivered %</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>13H</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1">
+      <c r="A50" s="62" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="B50" s="62" t="n"/>
+      <c r="C50" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" s="62" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M50" s="62" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N50" s="62" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6095,72 +10002,72 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="14" min="1" max="2"/>
+    <col width="9.140625" customWidth="1" style="13" min="1" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="26" t="inlineStr">
         <is>
           <t>Not Workable</t>
         </is>
       </c>
-      <c r="B1" s="32" t="n"/>
+      <c r="B1" s="26" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="inlineStr">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>Workable</t>
         </is>
       </c>
-      <c r="B2" s="32" t="n"/>
+      <c r="B2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="inlineStr">
+      <c r="A3" s="26" t="inlineStr">
         <is>
           <t>Issued</t>
         </is>
       </c>
-      <c r="B3" s="32" t="n"/>
+      <c r="B3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="inlineStr">
+      <c r="A4" s="26" t="inlineStr">
         <is>
           <t>Pulled</t>
         </is>
       </c>
-      <c r="B4" s="32" t="n"/>
+      <c r="B4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="32" t="inlineStr">
+      <c r="A5" s="26" t="inlineStr">
         <is>
           <t>Welded Out</t>
         </is>
       </c>
-      <c r="B5" s="32" t="n"/>
+      <c r="B5" s="26" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="inlineStr">
+      <c r="A6" s="26" t="inlineStr">
         <is>
           <t>Shipped to Coating</t>
         </is>
       </c>
-      <c r="B6" s="32" t="n"/>
+      <c r="B6" s="26" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="inlineStr">
+      <c r="A7" s="26" t="inlineStr">
         <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="B7" s="32" t="n"/>
+      <c r="B7" s="26" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="n"/>
-      <c r="B8" s="32" t="n"/>
+      <c r="A8" s="26" t="n"/>
+      <c r="B8" s="26" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="32" t="n"/>
-      <c r="B9" s="32" t="n"/>
+      <c r="A9" s="26" t="n"/>
+      <c r="B9" s="26" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6168,7 +10075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6177,208 +10084,242 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col width="24.140625" customWidth="1" style="1" min="1" max="5"/>
-    <col width="9.140625" customWidth="1" style="21" min="6" max="6"/>
+    <col width="9.140625" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.140625" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
-      <c r="B1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <f>F2</f>
-        <v/>
-      </c>
-      <c r="D1" s="4">
-        <f>F4</f>
-        <v/>
-      </c>
-      <c r="E1" s="4" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>1701 Spools</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>1386 Workable</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>1384 Issued</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n"/>
     </row>
     <row r="2" ht="25.15" customHeight="1">
-      <c r="A2" s="65" t="inlineStr">
+      <c r="A2" s="59" t="inlineStr">
         <is>
           <t>TOTAL SHORTS (ITEM QUANTITIES)</t>
         </is>
       </c>
-      <c r="B2" s="68" t="n"/>
-      <c r="C2" s="68" t="n"/>
-      <c r="D2" s="68" t="n"/>
-      <c r="E2" s="68" t="n"/>
+      <c r="B2" s="63" t="n"/>
+      <c r="C2" s="63" t="n"/>
+      <c r="D2" s="63" t="n"/>
+      <c r="E2" s="63" t="n"/>
     </row>
     <row r="3" ht="24" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ITEMS</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Valves</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="18">
+      <c r="B4" s="5" t="n">
+        <v>244</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
         <f>SUM(B4:D4)</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Flanges</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="18">
+      <c r="B5" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
         <f>SUM(B5:D5)</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Fittings</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="18">
+      <c r="B6" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
         <f>SUM(B6:D6)</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Supports</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="18">
+      <c r="B7" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
         <f>SUM(B7:D7)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="21.6" customFormat="1" customHeight="1" s="17">
-      <c r="A8" s="19" t="inlineStr">
+    <row r="8" ht="21.6" customFormat="1" customHeight="1" s="15">
+      <c r="A8" s="17" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f>SUM(B4:B7)</f>
         <v/>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <f>SUM(C4:C7)</f>
         <v/>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <f>SUM(D4:D7)</f>
         <v/>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <f>SUM(E4:E7)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="n"/>
+      <c r="F8" s="20" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="39" t="n"/>
-      <c r="B9" s="39" t="n"/>
-      <c r="C9" s="39" t="n"/>
-      <c r="D9" s="39" t="n"/>
-      <c r="E9" s="39" t="n"/>
-      <c r="F9" s="23" t="n"/>
+      <c r="A9" s="33" t="n"/>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="33" t="n"/>
+      <c r="E9" s="33" t="n"/>
+      <c r="F9" s="21" t="n"/>
     </row>
     <row r="10" ht="23.25" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>Pipe</t>
         </is>
       </c>
-      <c r="B10" s="12" t="n"/>
-      <c r="C10" s="12" t="n"/>
-      <c r="D10" s="12" t="n"/>
-      <c r="E10" s="13">
+      <c r="B10" s="11" t="n">
+        <v>1052.9</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
         <f>SUM(B10:D10)</f>
         <v/>
       </c>
-      <c r="F10" s="23" t="n"/>
+      <c r="F10" s="21" t="n"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="39" t="n"/>
-      <c r="B11" s="39" t="n"/>
-      <c r="C11" s="39" t="n"/>
-      <c r="D11" s="39" t="n"/>
-      <c r="E11" s="39" t="n"/>
-      <c r="F11" s="23" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customFormat="1" customHeight="1" s="21">
-      <c r="A12" s="35" t="inlineStr">
+      <c r="A11" s="33" t="n"/>
+      <c r="B11" s="33" t="n"/>
+      <c r="C11" s="33" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="33" t="n"/>
+      <c r="F11" s="21" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customFormat="1" customHeight="1" s="19">
+      <c r="A12" s="29" t="inlineStr">
         <is>
           <t>Not on Line List</t>
         </is>
       </c>
-      <c r="B12" s="36" t="n"/>
-      <c r="C12" s="36" t="n"/>
-      <c r="D12" s="36" t="n"/>
-      <c r="E12" s="34" t="n"/>
-      <c r="F12" s="37" t="n"/>
-      <c r="G12" s="37" t="n"/>
-      <c r="H12" s="37" t="n"/>
-      <c r="I12" s="37" t="n"/>
-      <c r="J12" s="37" t="n"/>
-      <c r="K12" s="37" t="n"/>
+      <c r="B12" s="30" t="n"/>
+      <c r="C12" s="30" t="n"/>
+      <c r="D12" s="30" t="n"/>
+      <c r="E12" s="28" t="n"/>
+      <c r="F12" s="31" t="n"/>
+      <c r="G12" s="31" t="n"/>
+      <c r="H12" s="31" t="n"/>
+      <c r="I12" s="31" t="n"/>
+      <c r="J12" s="31" t="n"/>
+      <c r="K12" s="31" t="n"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="F13" s="23" t="n"/>
+      <c r="F13" s="21" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="F14" s="23" t="n"/>
+      <c r="F14" s="21" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6389,7 +10330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6404,177 +10345,211 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col width="24.140625" customWidth="1" style="1" min="1" max="5"/>
-    <col width="9.140625" customWidth="1" style="21" min="6" max="6"/>
+    <col width="9.140625" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.140625" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
-      <c r="B1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <f>F2</f>
-        <v/>
-      </c>
-      <c r="D1" s="4">
-        <f>F4</f>
-        <v/>
-      </c>
-      <c r="E1" s="4" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>1701 Spools</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>1386 Workable</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>1384 Issued</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n"/>
     </row>
     <row r="2" ht="25.15" customHeight="1">
-      <c r="A2" s="65" t="inlineStr">
+      <c r="A2" s="59" t="inlineStr">
         <is>
           <t>TOTAL PURCHASED (ITEM QUANTITIES)</t>
         </is>
       </c>
-      <c r="B2" s="68" t="n"/>
-      <c r="C2" s="68" t="n"/>
-      <c r="D2" s="68" t="n"/>
-      <c r="E2" s="68" t="n"/>
+      <c r="B2" s="63" t="n"/>
+      <c r="C2" s="63" t="n"/>
+      <c r="D2" s="63" t="n"/>
+      <c r="E2" s="63" t="n"/>
     </row>
     <row r="3" ht="24" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ITEMS</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Valves</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="18">
+      <c r="B4" s="5" t="n">
+        <v>243</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
         <f>SUM(B4:D4)</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Flanges</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="18">
+      <c r="B5" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
         <f>SUM(B5:D5)</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Fittings</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="18">
+      <c r="B6" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
         <f>SUM(B6:D6)</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Supports</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="18">
+      <c r="B7" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
         <f>SUM(B7:D7)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="21.6" customFormat="1" customHeight="1" s="17">
-      <c r="A8" s="19" t="inlineStr">
+    <row r="8" ht="21.6" customFormat="1" customHeight="1" s="15">
+      <c r="A8" s="17" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f>SUM(B4:B7)</f>
         <v/>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <f>SUM(C4:C7)</f>
         <v/>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <f>SUM(D4:D7)</f>
         <v/>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <f>SUM(E4:E7)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="n"/>
+      <c r="F8" s="20" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="39" t="n"/>
-      <c r="B9" s="39" t="n"/>
-      <c r="C9" s="39" t="n"/>
-      <c r="D9" s="39" t="n"/>
-      <c r="E9" s="39" t="n"/>
-      <c r="F9" s="23" t="n"/>
+      <c r="A9" s="33" t="n"/>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="33" t="n"/>
+      <c r="E9" s="33" t="n"/>
+      <c r="F9" s="21" t="n"/>
     </row>
     <row r="10" ht="23.25" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>Pipe</t>
         </is>
       </c>
-      <c r="B10" s="12" t="n"/>
-      <c r="C10" s="12" t="n"/>
-      <c r="D10" s="12" t="n"/>
-      <c r="E10" s="13">
+      <c r="B10" s="11" t="n">
+        <v>795</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
         <f>SUM(B10:D10)</f>
         <v/>
       </c>
-      <c r="F10" s="23" t="n"/>
+      <c r="F10" s="21" t="n"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="F11" s="23" t="n"/>
+      <c r="F11" s="21" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="F12" s="23" t="n"/>
+      <c r="F12" s="21" t="n"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6586,7 +10561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6601,177 +10576,211 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col width="24.140625" customWidth="1" style="1" min="1" max="5"/>
-    <col width="9.140625" customWidth="1" style="21" min="6" max="6"/>
+    <col width="9.140625" customWidth="1" style="19" min="6" max="6"/>
     <col width="9.140625" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
-      <c r="B1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <f>F2</f>
-        <v/>
-      </c>
-      <c r="D1" s="4">
-        <f>F4</f>
-        <v/>
-      </c>
-      <c r="E1" s="4" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>1701 Spools</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>1386 Workable</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>1384 Issued</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n"/>
     </row>
     <row r="2" ht="25.15" customHeight="1">
-      <c r="A2" s="65" t="inlineStr">
+      <c r="A2" s="59" t="inlineStr">
         <is>
           <t>TOTAL NO MATERIAL (ITEM QUANTITIES)</t>
         </is>
       </c>
-      <c r="B2" s="68" t="n"/>
-      <c r="C2" s="68" t="n"/>
-      <c r="D2" s="68" t="n"/>
-      <c r="E2" s="68" t="n"/>
+      <c r="B2" s="63" t="n"/>
+      <c r="C2" s="63" t="n"/>
+      <c r="D2" s="63" t="n"/>
+      <c r="E2" s="63" t="n"/>
     </row>
     <row r="3" ht="24" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ITEMS</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Valves</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="18">
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
         <f>SUM(B4:D4)</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Flanges</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="18">
+      <c r="B5" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
         <f>SUM(B5:D5)</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Fittings</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="18">
+      <c r="B6" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
         <f>SUM(B6:D6)</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Supports</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="18">
+      <c r="B7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
         <f>SUM(B7:D7)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="21.6" customFormat="1" customHeight="1" s="17">
-      <c r="A8" s="19" t="inlineStr">
+    <row r="8" ht="21.6" customFormat="1" customHeight="1" s="15">
+      <c r="A8" s="17" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <f>SUM(B4:B7)</f>
         <v/>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <f>SUM(C4:C7)</f>
         <v/>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <f>SUM(D4:D7)</f>
         <v/>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <f>SUM(E4:E7)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="n"/>
+      <c r="F8" s="20" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="39" t="n"/>
-      <c r="B9" s="39" t="n"/>
-      <c r="C9" s="39" t="n"/>
-      <c r="D9" s="39" t="n"/>
-      <c r="E9" s="39" t="n"/>
-      <c r="F9" s="23" t="n"/>
+      <c r="A9" s="33" t="n"/>
+      <c r="B9" s="33" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="33" t="n"/>
+      <c r="E9" s="33" t="n"/>
+      <c r="F9" s="21" t="n"/>
     </row>
     <row r="10" ht="23.25" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>Pipe</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="13">
+      <c r="B10" s="5" t="n">
+        <v>257.9</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
         <f>SUM(B10:D10)</f>
         <v/>
       </c>
-      <c r="F10" s="23" t="n"/>
+      <c r="F10" s="21" t="n"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="F11" s="23" t="n"/>
+      <c r="F11" s="21" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="F12" s="23" t="n"/>
+      <c r="F12" s="21" t="n"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="6" t="n"/>
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6782,7 +10791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6801,53 +10810,59 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="65" t="inlineStr">
+      <c r="A1" s="59" t="inlineStr">
         <is>
           <t>SPOOLS MISSING VALVE ONLY</t>
         </is>
       </c>
-      <c r="B1" s="68" t="n"/>
-      <c r="C1" s="68" t="n"/>
-      <c r="D1" s="68" t="n"/>
-      <c r="E1" s="68" t="n"/>
+      <c r="B1" s="63" t="n"/>
+      <c r="C1" s="63" t="n"/>
+      <c r="D1" s="63" t="n"/>
+      <c r="E1" s="63" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>ITEMS</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="D2" s="8" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="3" ht="22.9" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Purchased</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="18">
+      <c r="B3" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
         <f>SUM(B3:D3)</f>
         <v/>
       </c>
@@ -6859,4 +10874,370 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" style="1" min="1" max="5"/>
+    <col width="9.140625" customWidth="1" style="1" min="6" max="8"/>
+    <col width="43" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="43" customWidth="1" style="1" min="11" max="11"/>
+    <col width="9.140625" customWidth="1" style="1" min="12" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>1701 Spools</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>1386 Workable</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>1384 Issued</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="19" t="n"/>
+    </row>
+    <row r="2" ht="25.15" customHeight="1">
+      <c r="A2" s="60" t="inlineStr">
+        <is>
+          <t>* What item is holding up the spool and who is responsible for it?</t>
+        </is>
+      </c>
+      <c r="B2" s="63" t="n"/>
+      <c r="C2" s="63" t="n"/>
+      <c r="D2" s="63" t="n"/>
+      <c r="E2" s="63" t="n"/>
+      <c r="F2" s="19" t="n"/>
+    </row>
+    <row r="3" ht="24" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>SPOOLS</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Valves</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>147</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <f>SUM(B4:D4)</f>
+        <v/>
+      </c>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Flanges</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <f>SUM(B5:D5)</f>
+        <v/>
+      </c>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Fittings</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <f>SUM(B6:D6)</f>
+        <v/>
+      </c>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Pipe</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <f>SUM(B7:D7)</f>
+        <v/>
+      </c>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Supports</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <f>SUM(B8:D8)</f>
+        <v/>
+      </c>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Issued</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="22" t="n">
+        <v>1384</v>
+      </c>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="5" t="n"/>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Issued (Missing Items)</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Workable (Not Issued)</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>On Hold (No Shorts)</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="29" t="inlineStr">
+        <is>
+          <t>Discrepancies</t>
+        </is>
+      </c>
+      <c r="B13" s="30" t="n"/>
+      <c r="C13" s="30" t="n"/>
+      <c r="D13" s="30" t="n"/>
+      <c r="E13" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="22.5" customFormat="1" customHeight="1" s="15">
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B14" s="18">
+        <f>SUM(B4:B8)</f>
+        <v/>
+      </c>
+      <c r="C14" s="18">
+        <f>SUM(C4:C8)</f>
+        <v/>
+      </c>
+      <c r="D14" s="18">
+        <f>SUM(D4:D8)</f>
+        <v/>
+      </c>
+      <c r="E14" s="24" t="n">
+        <v>1701</v>
+      </c>
+      <c r="F14" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G14" s="23" t="n"/>
+      <c r="H14" s="23" t="n"/>
+      <c r="I14" s="23" t="n"/>
+      <c r="J14" s="23" t="n"/>
+      <c r="K14" s="23" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="5" t="n"/>
+      <c r="I15" s="5" t="n"/>
+      <c r="J15" s="5" t="n"/>
+      <c r="K15" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/database/6951/JobSummary.xlsx
+++ b/database/6951/JobSummary.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -153,8 +153,17 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill/>
     </fill>
@@ -261,6 +270,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00d9d9d9"/>
         <bgColor rgb="00d9d9d9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00404040"/>
+        <bgColor rgb="00404040"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00538dd5"/>
+        <bgColor rgb="00538dd5"/>
       </patternFill>
     </fill>
   </fills>
@@ -499,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -678,7 +699,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5276,1102 +5314,1147 @@
         <v/>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="n"/>
+    </row>
     <row r="31" ht="33" customHeight="1">
-      <c r="A31" s="58" t="inlineStr">
+      <c r="A31" s="62" t="inlineStr">
         <is>
           <t>6951 Areas Summary</t>
         </is>
       </c>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="K31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+      <c r="M31" s="1" t="n"/>
+      <c r="N31" s="1" t="n"/>
     </row>
     <row r="32" ht="21" customFormat="1" customHeight="1" s="1">
-      <c r="A32" s="53" t="inlineStr">
+      <c r="A32" s="63" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="B32" s="53" t="inlineStr">
+      <c r="B32" s="63" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="C32" s="53" t="inlineStr">
+      <c r="C32" s="63" t="inlineStr">
         <is>
           <t>Total Spools</t>
         </is>
       </c>
-      <c r="D32" s="53" t="inlineStr">
+      <c r="D32" s="63" t="inlineStr">
         <is>
           <t>On Hold</t>
         </is>
       </c>
-      <c r="E32" s="53" t="inlineStr">
+      <c r="E32" s="63" t="inlineStr">
         <is>
           <t>Workable</t>
         </is>
       </c>
-      <c r="F32" s="53" t="inlineStr">
+      <c r="F32" s="63" t="inlineStr">
         <is>
           <t>Not Workable</t>
         </is>
       </c>
-      <c r="G32" s="53" t="inlineStr">
+      <c r="G32" s="63" t="inlineStr">
         <is>
           <t>Welded Out</t>
         </is>
       </c>
-      <c r="H32" s="53" t="inlineStr">
+      <c r="H32" s="63" t="inlineStr">
         <is>
           <t>Remaining to Weld Out</t>
         </is>
       </c>
-      <c r="I32" s="53" t="inlineStr">
+      <c r="I32" s="63" t="inlineStr">
         <is>
           <t>Shipped To Paint</t>
         </is>
       </c>
-      <c r="J32" s="53" t="inlineStr">
+      <c r="J32" s="63" t="inlineStr">
         <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="K32" s="53" t="inlineStr">
+      <c r="K32" s="63" t="inlineStr">
         <is>
           <t>Remaining to Deliver</t>
         </is>
       </c>
-      <c r="L32" s="53" t="inlineStr">
+      <c r="L32" s="63" t="inlineStr">
         <is>
           <t>Workable %</t>
         </is>
       </c>
-      <c r="M32" s="53" t="inlineStr">
+      <c r="M32" s="63" t="inlineStr">
         <is>
           <t>Weld Out %</t>
         </is>
       </c>
-      <c r="N32" s="53" t="inlineStr">
+      <c r="N32" s="63" t="inlineStr">
         <is>
           <t>Delivered %</t>
         </is>
       </c>
     </row>
     <row r="33" customFormat="1" s="1">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>16B</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>91.43%</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>88.57%</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>5.71%</t>
+      <c r="L33" s="1" t="inlineStr">
+        <is>
+          <t>91.4%</t>
+        </is>
+      </c>
+      <c r="M33" s="1" t="inlineStr">
+        <is>
+          <t>88.6%</t>
+        </is>
+      </c>
+      <c r="N33" s="1" t="inlineStr">
+        <is>
+          <t>5.7%</t>
         </is>
       </c>
     </row>
     <row r="34" customFormat="1" s="1">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>14A</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>81.48%</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>81.48%</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>7.41%</t>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>81.5%</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="inlineStr">
+        <is>
+          <t>81.5%</t>
+        </is>
+      </c>
+      <c r="N34" s="1" t="inlineStr">
+        <is>
+          <t>7.4%</t>
         </is>
       </c>
     </row>
     <row r="35" customFormat="1" s="1">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>20B</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>81.03%</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>79.31%</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>24.14%</t>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>81.0%</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="inlineStr">
+        <is>
+          <t>79.3%</t>
+        </is>
+      </c>
+      <c r="N35" s="1" t="inlineStr">
+        <is>
+          <t>24.1%</t>
         </is>
       </c>
     </row>
     <row r="36" customFormat="1" s="1">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>15C</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>92.86%</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>92.86%</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>71.43%</t>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t>92.9%</t>
+        </is>
+      </c>
+      <c r="M36" s="1" t="inlineStr">
+        <is>
+          <t>92.9%</t>
+        </is>
+      </c>
+      <c r="N36" s="1" t="inlineStr">
+        <is>
+          <t>71.4%</t>
         </is>
       </c>
     </row>
     <row r="37" customFormat="1" s="1">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>15B</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>90.32%</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>90.32%</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>70.97%</t>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>90.3%</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="inlineStr">
+        <is>
+          <t>90.3%</t>
+        </is>
+      </c>
+      <c r="N37" s="1" t="inlineStr">
+        <is>
+          <t>71.0%</t>
         </is>
       </c>
     </row>
     <row r="38" customFormat="1" s="1">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>15A</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>88.68%</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>86.79%</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>64.15%</t>
+      <c r="L38" s="1" t="inlineStr">
+        <is>
+          <t>88.7%</t>
+        </is>
+      </c>
+      <c r="M38" s="1" t="inlineStr">
+        <is>
+          <t>86.8%</t>
+        </is>
+      </c>
+      <c r="N38" s="1" t="inlineStr">
+        <is>
+          <t>64.2%</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>31A</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>89.40%</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>70.86%</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>10.60%</t>
+      <c r="L39" s="1" t="inlineStr">
+        <is>
+          <t>89.4%</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="inlineStr">
+        <is>
+          <t>70.9%</t>
+        </is>
+      </c>
+      <c r="N39" s="1" t="inlineStr">
+        <is>
+          <t>10.6%</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>14B</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>97.42%</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>93.04%</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>29.38%</t>
+      <c r="L40" s="1" t="inlineStr">
+        <is>
+          <t>97.4%</t>
+        </is>
+      </c>
+      <c r="M40" s="1" t="inlineStr">
+        <is>
+          <t>93.0%</t>
+        </is>
+      </c>
+      <c r="N40" s="1" t="inlineStr">
+        <is>
+          <t>29.4%</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>13F</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>59.07%</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>52.12%</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>0.77%</t>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>59.1%</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>52.1%</t>
+        </is>
+      </c>
+      <c r="N41" s="1" t="inlineStr">
+        <is>
+          <t>0.8%</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>13E</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>81.25%</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>67.19%</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>3.13%</t>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>81.3%</t>
+        </is>
+      </c>
+      <c r="M42" s="1" t="inlineStr">
+        <is>
+          <t>67.2%</t>
+        </is>
+      </c>
+      <c r="N42" s="1" t="inlineStr">
+        <is>
+          <t>3.1%</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>30B</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>88.14%</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>84.75%</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>5.08%</t>
+      <c r="L43" s="1" t="inlineStr">
+        <is>
+          <t>88.1%</t>
+        </is>
+      </c>
+      <c r="M43" s="1" t="inlineStr">
+        <is>
+          <t>84.7%</t>
+        </is>
+      </c>
+      <c r="N43" s="1" t="inlineStr">
+        <is>
+          <t>5.1%</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>13H</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>84.78%</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>84.78%</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+      <c r="L44" s="1" t="inlineStr">
+        <is>
+          <t>84.8%</t>
+        </is>
+      </c>
+      <c r="M44" s="1" t="inlineStr">
+        <is>
+          <t>84.8%</t>
+        </is>
+      </c>
+      <c r="N44" s="1" t="inlineStr">
+        <is>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>13G</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>70.00%</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>70.00%</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="M45" s="1" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="N45" s="1" t="inlineStr">
+        <is>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>13A</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>82.93%</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>79.27%</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>6.10%</t>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>82.9%</t>
+        </is>
+      </c>
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>79.3%</t>
+        </is>
+      </c>
+      <c r="N46" s="1" t="inlineStr">
+        <is>
+          <t>6.1%</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>13C</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>68.60%</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>57.85%</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>3.31%</t>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t>68.6%</t>
+        </is>
+      </c>
+      <c r="M47" s="1" t="inlineStr">
+        <is>
+          <t>57.9%</t>
+        </is>
+      </c>
+      <c r="N47" s="1" t="inlineStr">
+        <is>
+          <t>3.3%</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>13D</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>69.01%</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>54.93%</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>69.0%</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>54.9%</t>
+        </is>
+      </c>
+      <c r="N48" s="1" t="inlineStr">
+        <is>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>13B</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>93.94%</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>63.64%</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>9.09%</t>
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>93.9%</t>
+        </is>
+      </c>
+      <c r="M49" s="1" t="inlineStr">
+        <is>
+          <t>63.6%</t>
+        </is>
+      </c>
+      <c r="N49" s="1" t="inlineStr">
+        <is>
+          <t>9.1%</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>16A</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="D50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="J50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>82.86%</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>71.43%</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+      <c r="L50" s="1" t="inlineStr">
+        <is>
+          <t>82.9%</t>
+        </is>
+      </c>
+      <c r="M50" s="1" t="inlineStr">
+        <is>
+          <t>71.4%</t>
+        </is>
+      </c>
+      <c r="N50" s="1" t="inlineStr">
+        <is>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
-      <c r="A51" s="62" t="inlineStr">
+      <c r="A51" s="64" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="B51" s="62" t="n"/>
-      <c r="C51" s="62" t="n">
+      <c r="B51" s="64" t="n"/>
+      <c r="C51" s="64" t="n">
         <v>1701</v>
       </c>
-      <c r="D51" s="62" t="n">
+      <c r="D51" s="64" t="n">
         <v>52</v>
       </c>
-      <c r="E51" s="62" t="n">
+      <c r="E51" s="64" t="n">
         <v>1386</v>
       </c>
-      <c r="F51" s="62" t="n">
+      <c r="F51" s="64" t="n">
         <v>315</v>
       </c>
-      <c r="G51" s="62" t="n">
+      <c r="G51" s="64" t="n">
         <v>1246</v>
       </c>
-      <c r="H51" s="62" t="n">
+      <c r="H51" s="64" t="n">
         <v>455</v>
       </c>
-      <c r="I51" s="62" t="n">
+      <c r="I51" s="64" t="n">
         <v>993</v>
       </c>
-      <c r="J51" s="62" t="n">
+      <c r="J51" s="64" t="n">
         <v>240</v>
       </c>
-      <c r="K51" s="62" t="n">
+      <c r="K51" s="64" t="n">
         <v>1461</v>
       </c>
-      <c r="L51" s="62" t="inlineStr">
+      <c r="L51" s="64" t="inlineStr">
         <is>
           <t>81%</t>
         </is>
       </c>
-      <c r="M51" s="62" t="inlineStr">
+      <c r="M51" s="64" t="inlineStr">
         <is>
           <t>73%</t>
         </is>
       </c>
-      <c r="N51" s="62" t="inlineStr">
+      <c r="N51" s="64" t="inlineStr">
         <is>
           <t>14%</t>
         </is>
@@ -6402,7 +6485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -6434,6 +6517,1686 @@
       <c r="D1" s="27" t="inlineStr">
         <is>
           <t>PM In Status Report (Not in Line List)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>343-BR</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>6951-3-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>615-B</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>6951-89-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>725-B</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>6951-89-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>762-D</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>6951-89-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>862-A</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>6951-89-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>866-A</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>6951-89-F</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>867-B</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>6951-98-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>868-A</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>6951-178-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>869-A</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>6951-178-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>869-B</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>6951-178-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>6951-180-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>6951-180-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>6951-180-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>6951-182-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>6951-182-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>6951-182-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>6951-182-F</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>6951-184-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>6951-184-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>6951-184-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>6951-184-F</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>6951-186-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>6951-186-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>6951-186-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>6951-186-F</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>6951-189-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>6951-189-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>6951-190-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>6951-190-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>6951-191-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>6951-191-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>6951-192-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>6951-192-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>6951-193-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>6951-193-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>6951-195-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>6951-196-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>6951-197-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>6951-198-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>6951-199-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>6951-816-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>6951-817-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>6951-257-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>6951-257-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>6951-257-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>6951-1-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>6951-13-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>6951-2-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>6951-5-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>6951-279-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>6951-280-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>6951-328-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>6951-671-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>6951-671-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>6951-583-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>6951-597-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>6951-613-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>6951-636-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>6951-652-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>6951-588-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>6951-640-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>6951-672-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>6951-830-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>6951-74-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>6951-76-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>6951-76-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>6951-80-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>6951-81-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>6951-84-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>6951-91-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>6951-94-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>6951-90-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>6951-90-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>6951-90-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>6951-92-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>6951-92-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>6951-92-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>6951-93-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>6951-93-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>6951-93-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>6951-201-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>6951-86-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>6951-103-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>6951-105-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>6951-99-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>6951-97-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>6951-416-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>6951-638-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>6951-638-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="n"/>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>6951-77-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>6951-806-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-S</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-T</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="n"/>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-U</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-V</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="1" t="n"/>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-W</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="n"/>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-X</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="n"/>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="n"/>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n"/>
+      <c r="C102" s="1" t="n"/>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-A</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n"/>
+      <c r="C103" s="1" t="n"/>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="n"/>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="1" t="n"/>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n"/>
+      <c r="C106" s="1" t="n"/>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="n"/>
+      <c r="C107" s="1" t="n"/>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-F</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="n"/>
+      <c r="C108" s="1" t="n"/>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-G</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="n"/>
+      <c r="C109" s="1" t="n"/>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-H</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n"/>
+      <c r="C110" s="1" t="n"/>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-J</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="n"/>
+      <c r="C111" s="1" t="n"/>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-K</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="1" t="n"/>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-L</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="n"/>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-M</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="n"/>
+      <c r="C114" s="1" t="n"/>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-N</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n"/>
+      <c r="C115" s="1" t="n"/>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-P</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="1" t="n"/>
+      <c r="D116" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="n"/>
+      <c r="C117" s="1" t="n"/>
+      <c r="D117" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-R</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n"/>
+      <c r="C118" s="1" t="n"/>
+      <c r="D118" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-S</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="n"/>
+      <c r="D119" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-X</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="n"/>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="1" t="n"/>
+      <c r="D121" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="1" t="n"/>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-T</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="n"/>
+      <c r="D123" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-U</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n"/>
+      <c r="C124" s="1" t="n"/>
+      <c r="D124" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-V</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="1" t="n"/>
+      <c r="D125" s="1" t="inlineStr">
+        <is>
+          <t>6951-793-W</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="1" t="n"/>
+      <c r="D126" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-A</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n"/>
+      <c r="C127" s="1" t="n"/>
+      <c r="D127" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n"/>
+      <c r="C128" s="1" t="n"/>
+      <c r="D128" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="n"/>
+      <c r="C129" s="1" t="n"/>
+      <c r="D129" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="n"/>
+      <c r="C130" s="1" t="n"/>
+      <c r="D130" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="n"/>
+      <c r="C131" s="1" t="n"/>
+      <c r="D131" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-F</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n"/>
+      <c r="B132" s="1" t="n"/>
+      <c r="C132" s="1" t="n"/>
+      <c r="D132" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-G</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n"/>
+      <c r="C133" s="1" t="n"/>
+      <c r="D133" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-H</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n"/>
+      <c r="B134" s="1" t="n"/>
+      <c r="C134" s="1" t="n"/>
+      <c r="D134" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-J</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="1" t="n"/>
+      <c r="C135" s="1" t="n"/>
+      <c r="D135" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-K</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n"/>
+      <c r="B136" s="1" t="n"/>
+      <c r="C136" s="1" t="n"/>
+      <c r="D136" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-L</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="n"/>
+      <c r="C137" s="1" t="n"/>
+      <c r="D137" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-M</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="n"/>
+      <c r="C138" s="1" t="n"/>
+      <c r="D138" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-N</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="n"/>
+      <c r="C139" s="1" t="n"/>
+      <c r="D139" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-P</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n"/>
+      <c r="B140" s="1" t="n"/>
+      <c r="C140" s="1" t="n"/>
+      <c r="D140" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="n"/>
+      <c r="C141" s="1" t="n"/>
+      <c r="D141" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-R</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n"/>
+      <c r="B142" s="1" t="n"/>
+      <c r="C142" s="1" t="n"/>
+      <c r="D142" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-S</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="1" t="n"/>
+      <c r="C143" s="1" t="n"/>
+      <c r="D143" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-T</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n"/>
+      <c r="B144" s="1" t="n"/>
+      <c r="C144" s="1" t="n"/>
+      <c r="D144" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-U</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n"/>
+      <c r="B145" s="1" t="n"/>
+      <c r="C145" s="1" t="n"/>
+      <c r="D145" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-V</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n"/>
+      <c r="B146" s="1" t="n"/>
+      <c r="C146" s="1" t="n"/>
+      <c r="D146" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-W</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n"/>
+      <c r="B147" s="1" t="n"/>
+      <c r="C147" s="1" t="n"/>
+      <c r="D147" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-X</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n"/>
+      <c r="B148" s="1" t="n"/>
+      <c r="C148" s="1" t="n"/>
+      <c r="D148" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n"/>
+      <c r="B149" s="1" t="n"/>
+      <c r="C149" s="1" t="n"/>
+      <c r="D149" s="1" t="inlineStr">
+        <is>
+          <t>6951-794-Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n"/>
+      <c r="B150" s="1" t="n"/>
+      <c r="C150" s="1" t="n"/>
+      <c r="D150" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-A</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n"/>
+      <c r="B151" s="1" t="n"/>
+      <c r="C151" s="1" t="n"/>
+      <c r="D151" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n"/>
+      <c r="B152" s="1" t="n"/>
+      <c r="C152" s="1" t="n"/>
+      <c r="D152" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="n"/>
+      <c r="C153" s="1" t="n"/>
+      <c r="D153" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-D</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n"/>
+      <c r="B154" s="1" t="n"/>
+      <c r="C154" s="1" t="n"/>
+      <c r="D154" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n"/>
+      <c r="B155" s="1" t="n"/>
+      <c r="C155" s="1" t="n"/>
+      <c r="D155" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-F</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n"/>
+      <c r="C156" s="1" t="n"/>
+      <c r="D156" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-G</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="1" t="n"/>
+      <c r="C157" s="1" t="n"/>
+      <c r="D157" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-H</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="n"/>
+      <c r="C158" s="1" t="n"/>
+      <c r="D158" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-J</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="n"/>
+      <c r="C159" s="1" t="n"/>
+      <c r="D159" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-K</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="1" t="n"/>
+      <c r="C160" s="1" t="n"/>
+      <c r="D160" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-L</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="n"/>
+      <c r="C161" s="1" t="n"/>
+      <c r="D161" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-M</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n"/>
+      <c r="C162" s="1" t="n"/>
+      <c r="D162" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-N</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="n"/>
+      <c r="C163" s="1" t="n"/>
+      <c r="D163" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-P</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="1" t="n"/>
+      <c r="C164" s="1" t="n"/>
+      <c r="D164" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="n"/>
+      <c r="C165" s="1" t="n"/>
+      <c r="D165" s="1" t="inlineStr">
+        <is>
+          <t>6951-795-R</t>
         </is>
       </c>
     </row>
@@ -6456,1109 +8219,1128 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="37" customHeight="1">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>Areas Summary</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="37" customHeight="1">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Total Spools</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>On Hold</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Workable</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="66" t="inlineStr">
         <is>
           <t>Not Workable</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Welded Out</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Remaining to Weld Out</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Shipped To Paint</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Remaining to Deliver</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="66" t="inlineStr">
         <is>
           <t>Workable %</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="66" t="inlineStr">
         <is>
           <t>Weld Out %</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="66" t="inlineStr">
         <is>
           <t>Delivered %</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>16B</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>91.43%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>88.57%</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5.71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>91.4%</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>88.6%</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>14A</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>81.48%</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>81.48%</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>7.41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>81.5%</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>81.5%</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>7.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>20B</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>81.03%</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>79.31%</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>24.14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>81.0%</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>79.3%</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>24.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>15C</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>92.86%</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>92.86%</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>71.43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>92.9%</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>92.9%</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>71.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>15B</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>90.32%</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>90.32%</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>70.97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>90.3%</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>90.3%</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>71.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>15A</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>88.68%</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>86.79%</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>64.15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>88.7%</t>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
+        <is>
+          <t>86.8%</t>
+        </is>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>64.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>31A</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>107</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>89.40%</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>70.86%</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>10.60%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>89.4%</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
+        <is>
+          <t>70.9%</t>
+        </is>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>10.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>14B</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="5" t="n">
         <v>388</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
         <v>378</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>361</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="5" t="n">
         <v>322</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="5" t="n">
         <v>114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="5" t="n">
         <v>274</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>97.42%</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>93.04%</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>29.38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>97.4%</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
+        <is>
+          <t>93.0%</t>
+        </is>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
+        <is>
+          <t>29.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>13F</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="5" t="n">
         <v>259</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="5" t="n">
         <v>106</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="5" t="n">
         <v>124</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="5" t="n">
         <v>117</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="5" t="n">
         <v>257</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>59.07%</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>52.12%</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0.77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>59.1%</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>52.1%</t>
+        </is>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>13E</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>81.25%</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>67.19%</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>3.13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>81.3%</t>
+        </is>
+      </c>
+      <c r="M12" s="5" t="inlineStr">
+        <is>
+          <t>67.2%</t>
+        </is>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>30B</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>88.14%</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>84.75%</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>5.08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>88.1%</t>
+        </is>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
+        <is>
+          <t>84.7%</t>
+        </is>
+      </c>
+      <c r="N13" s="5" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>13H</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>84.78%</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>84.78%</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>84.8%</t>
+        </is>
+      </c>
+      <c r="M14" s="5" t="inlineStr">
+        <is>
+          <t>84.8%</t>
+        </is>
+      </c>
+      <c r="N14" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>13G</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>70.00%</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>70.00%</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>13A</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>82.93%</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>79.27%</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>6.10%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>82.9%</t>
+        </is>
+      </c>
+      <c r="M16" s="5" t="inlineStr">
+        <is>
+          <t>79.3%</t>
+        </is>
+      </c>
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>13C</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="5" t="n">
         <v>242</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="5" t="n">
         <v>166</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="5" t="n">
         <v>140</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="5" t="n">
         <v>121</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="5" t="n">
         <v>234</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>68.60%</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>57.85%</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>3.31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>68.6%</t>
+        </is>
+      </c>
+      <c r="M17" s="5" t="inlineStr">
+        <is>
+          <t>57.9%</t>
+        </is>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>13D</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>69.01%</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>54.93%</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>69.0%</t>
+        </is>
+      </c>
+      <c r="M18" s="5" t="inlineStr">
+        <is>
+          <t>54.9%</t>
+        </is>
+      </c>
+      <c r="N18" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>13B</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>93.94%</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>63.64%</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>9.09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>93.9%</t>
+        </is>
+      </c>
+      <c r="M19" s="5" t="inlineStr">
+        <is>
+          <t>63.6%</t>
+        </is>
+      </c>
+      <c r="N19" s="5" t="inlineStr">
+        <is>
+          <t>9.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>16A</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>82.86%</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>71.43%</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="62" t="inlineStr">
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>82.9%</t>
+        </is>
+      </c>
+      <c r="M20" s="5" t="inlineStr">
+        <is>
+          <t>71.4%</t>
+        </is>
+      </c>
+      <c r="N20" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="67" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="B21" s="62" t="n"/>
-      <c r="C21" s="62" t="n">
+      <c r="B21" s="67" t="n"/>
+      <c r="C21" s="67" t="n">
         <v>1701</v>
       </c>
-      <c r="D21" s="62" t="n">
+      <c r="D21" s="67" t="n">
         <v>52</v>
       </c>
-      <c r="E21" s="62" t="n">
+      <c r="E21" s="67" t="n">
         <v>1386</v>
       </c>
-      <c r="F21" s="62" t="n">
+      <c r="F21" s="67" t="n">
         <v>315</v>
       </c>
-      <c r="G21" s="62" t="n">
+      <c r="G21" s="67" t="n">
         <v>1246</v>
       </c>
-      <c r="H21" s="62" t="n">
+      <c r="H21" s="67" t="n">
         <v>455</v>
       </c>
-      <c r="I21" s="62" t="n">
+      <c r="I21" s="67" t="n">
         <v>993</v>
       </c>
-      <c r="J21" s="62" t="n">
+      <c r="J21" s="67" t="n">
         <v>240</v>
       </c>
-      <c r="K21" s="62" t="n">
+      <c r="K21" s="67" t="n">
         <v>1461</v>
       </c>
-      <c r="L21" s="62" t="inlineStr">
+      <c r="L21" s="67" t="inlineStr">
         <is>
           <t>81%</t>
         </is>
       </c>
-      <c r="M21" s="62" t="inlineStr">
+      <c r="M21" s="67" t="inlineStr">
         <is>
           <t>73%</t>
         </is>
       </c>
-      <c r="N21" s="62" t="inlineStr">
+      <c r="N21" s="67" t="inlineStr">
         <is>
           <t>14%</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7576,2414 +9358,2484 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="37" customHeight="1">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>CS Summary</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="37" customHeight="1">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Priority #</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Total Spools</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>On Hold</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Workable</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="66" t="inlineStr">
         <is>
           <t>Not Workable</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Welded Out</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Remaining to Weld Out</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Shipped To Paint</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Remaining to Deliver</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="66" t="inlineStr">
         <is>
           <t>Workable %</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="66" t="inlineStr">
         <is>
           <t>Weld Out %</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="66" t="inlineStr">
         <is>
           <t>Delivered %</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>13G</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>75.00%</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>75.00%</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>20B</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>81.03%</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>79.31%</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>24.14%</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>13A</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>82.50%</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>78.75%</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>3.75%</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>15A</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>70.00%</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>65.00%</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>5.00%</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>15B</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>72.73%</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>72.73%</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>18.18%</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>15C</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t>75.00%</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>75.00%</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>16A</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>77.78%</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>62.96%</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>16B</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>86.96%</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>82.61%</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>13B</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>93.94%</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>63.64%</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>9.09%</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>13E</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>81.25%</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>67.19%</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>3.13%</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>14A</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="5" t="inlineStr">
         <is>
           <t>81.48%</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>81.48%</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>7.41%</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>13D</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>84.21%</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>13F</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="5" t="n">
         <v>194</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>108</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>55.67%</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>47.42%</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>1.03%</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>13H</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>90.70%</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>90.70%</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>30B</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="5" t="inlineStr">
         <is>
           <t>86.27%</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>82.35%</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>5.88%</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>31A</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="5" t="n">
         <v>148</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5" t="n">
         <v>132</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>89.19%</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>70.27%</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>8.78%</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>13C</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>129</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="5" t="n">
         <v>144</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="5" t="inlineStr">
         <is>
           <t>85.43%</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>68.21%</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>4.64%</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>14B</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="5" t="n">
         <v>360</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
         <v>350</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="5" t="n">
         <v>334</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="5" t="n">
         <v>322</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="5" t="n">
         <v>271</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="5" t="inlineStr">
         <is>
           <t>97.22%</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>92.78%</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>24.72%</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="62" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="67" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="B21" s="62" t="n"/>
-      <c r="C21" s="62" t="n">
+      <c r="B21" s="67" t="n"/>
+      <c r="C21" s="67" t="n">
         <v>1400</v>
       </c>
-      <c r="D21" s="62" t="n">
+      <c r="D21" s="67" t="n">
         <v>11</v>
       </c>
-      <c r="E21" s="62" t="n">
+      <c r="E21" s="67" t="n">
         <v>1177</v>
       </c>
-      <c r="F21" s="62" t="n">
+      <c r="F21" s="67" t="n">
         <v>223</v>
       </c>
-      <c r="G21" s="62" t="n">
+      <c r="G21" s="67" t="n">
         <v>1040</v>
       </c>
-      <c r="H21" s="62" t="n">
+      <c r="H21" s="67" t="n">
         <v>360</v>
       </c>
-      <c r="I21" s="62" t="n">
+      <c r="I21" s="67" t="n">
         <v>928</v>
       </c>
-      <c r="J21" s="62" t="n">
+      <c r="J21" s="67" t="n">
         <v>144</v>
       </c>
-      <c r="K21" s="62" t="n">
+      <c r="K21" s="67" t="n">
         <v>1256</v>
       </c>
-      <c r="L21" s="62" t="inlineStr">
+      <c r="L21" s="67" t="inlineStr">
         <is>
           <t>84%</t>
         </is>
       </c>
-      <c r="M21" s="62" t="inlineStr">
+      <c r="M21" s="67" t="inlineStr">
         <is>
           <t>74%</t>
         </is>
       </c>
-      <c r="N21" s="62" t="inlineStr">
+      <c r="N21" s="67" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+      <c r="H22" s="5" t="n"/>
+      <c r="I22" s="5" t="n"/>
+      <c r="J22" s="5" t="n"/>
+      <c r="K22" s="5" t="n"/>
+      <c r="L22" s="5" t="n"/>
+      <c r="M22" s="5" t="n"/>
+      <c r="N22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="37" customHeight="1">
+      <c r="A23" s="65" t="inlineStr">
         <is>
           <t>SS Summary</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="37" customHeight="1">
+      <c r="A24" s="66" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="66" t="inlineStr">
         <is>
           <t>Priority #</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="66" t="inlineStr">
         <is>
           <t>Total Spools</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="66" t="inlineStr">
         <is>
           <t>On Hold</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="66" t="inlineStr">
         <is>
           <t>Workable</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="66" t="inlineStr">
         <is>
           <t>Not Workable</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="66" t="inlineStr">
         <is>
           <t>Welded Out</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" s="66" t="inlineStr">
         <is>
           <t>Remaining to Weld Out</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I24" s="66" t="inlineStr">
         <is>
           <t>Shipped To Paint</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" s="66" t="inlineStr">
         <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K24" s="66" t="inlineStr">
         <is>
           <t>Remaining to Deliver</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" s="66" t="inlineStr">
         <is>
           <t>Workable %</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M24" s="66" t="inlineStr">
         <is>
           <t>Weld Out %</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" s="66" t="inlineStr">
         <is>
           <t>Delivered %</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>13G</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="H25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>13A</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="H26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>16A</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="H27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>16B</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="H28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>16.67%</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>15A</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="H29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>15B</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="H30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>15C</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="H31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>31A</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="H32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>13F</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" s="5" t="inlineStr">
         <is>
           <t>88.57%</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>88.57%</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>13C</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" s="5" t="inlineStr">
         <is>
           <t>62.50%</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>62.50%</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>2.08%</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>14B</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="I35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>96.43%</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>89.29%</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>30B</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="H36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="20" customHeight="1">
-      <c r="A37" s="62" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="67" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="B37" s="62" t="n"/>
-      <c r="C37" s="62" t="n">
+      <c r="B37" s="67" t="n"/>
+      <c r="C37" s="67" t="n">
         <v>209</v>
       </c>
-      <c r="D37" s="62" t="n">
+      <c r="D37" s="67" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="62" t="n">
+      <c r="E37" s="67" t="n">
         <v>187</v>
       </c>
-      <c r="F37" s="62" t="n">
+      <c r="F37" s="67" t="n">
         <v>22</v>
       </c>
-      <c r="G37" s="62" t="n">
+      <c r="G37" s="67" t="n">
         <v>186</v>
       </c>
-      <c r="H37" s="62" t="n">
+      <c r="H37" s="67" t="n">
         <v>23</v>
       </c>
-      <c r="I37" s="62" t="n">
+      <c r="I37" s="67" t="n">
         <v>47</v>
       </c>
-      <c r="J37" s="62" t="n">
+      <c r="J37" s="67" t="n">
         <v>96</v>
       </c>
-      <c r="K37" s="62" t="n">
+      <c r="K37" s="67" t="n">
         <v>113</v>
       </c>
-      <c r="L37" s="62" t="inlineStr">
+      <c r="L37" s="67" t="inlineStr">
         <is>
           <t>89%</t>
         </is>
       </c>
-      <c r="M37" s="62" t="inlineStr">
+      <c r="M37" s="67" t="inlineStr">
         <is>
           <t>89%</t>
         </is>
       </c>
-      <c r="N37" s="62" t="inlineStr">
+      <c r="N37" s="67" t="inlineStr">
         <is>
           <t>46%</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" s="5" t="n"/>
+      <c r="B38" s="5" t="n"/>
+      <c r="C38" s="5" t="n"/>
+      <c r="D38" s="5" t="n"/>
+      <c r="E38" s="5" t="n"/>
+      <c r="F38" s="5" t="n"/>
+      <c r="G38" s="5" t="n"/>
+      <c r="H38" s="5" t="n"/>
+      <c r="I38" s="5" t="n"/>
+      <c r="J38" s="5" t="n"/>
+      <c r="K38" s="5" t="n"/>
+      <c r="L38" s="5" t="n"/>
+      <c r="M38" s="5" t="n"/>
+      <c r="N38" s="5" t="n"/>
+    </row>
+    <row r="39" ht="37" customHeight="1">
+      <c r="A39" s="65" t="inlineStr">
         <is>
           <t>P5 Summary</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="40" ht="37" customHeight="1">
+      <c r="A40" s="66" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="66" t="inlineStr">
         <is>
           <t>Priority #</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="66" t="inlineStr">
         <is>
           <t>Total Spools</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="66" t="inlineStr">
         <is>
           <t>On Hold</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="66" t="inlineStr">
         <is>
           <t>Workable</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="66" t="inlineStr">
         <is>
           <t>Not Workable</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G40" s="66" t="inlineStr">
         <is>
           <t>Welded Out</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" s="66" t="inlineStr">
         <is>
           <t>Remaining to Weld Out</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I40" s="66" t="inlineStr">
         <is>
           <t>Shipped To Paint</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" s="66" t="inlineStr">
         <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="K40" s="66" t="inlineStr">
         <is>
           <t>Remaining to Deliver</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" s="66" t="inlineStr">
         <is>
           <t>Workable %</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="M40" s="66" t="inlineStr">
         <is>
           <t>Weld Out %</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="N40" s="66" t="inlineStr">
         <is>
           <t>Delivered %</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>13G</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="G41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="I41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="M41" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="N41" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>13D</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" s="5" t="inlineStr">
         <is>
           <t>7.14%</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="M42" s="5" t="inlineStr">
         <is>
           <t>7.14%</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="N42" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>13F</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" s="5" t="inlineStr">
         <is>
           <t>46.67%</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M43" s="5" t="inlineStr">
         <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N43" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>13C</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" s="5" t="inlineStr">
         <is>
           <t>16.28%</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="M44" s="5" t="inlineStr">
         <is>
           <t>16.28%</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N44" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="20" customHeight="1">
-      <c r="A45" s="62" t="inlineStr">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" s="67" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="B45" s="62" t="n"/>
-      <c r="C45" s="62" t="n">
+      <c r="B45" s="67" t="n"/>
+      <c r="C45" s="67" t="n">
         <v>89</v>
       </c>
-      <c r="D45" s="62" t="n">
+      <c r="D45" s="67" t="n">
         <v>37</v>
       </c>
-      <c r="E45" s="62" t="n">
+      <c r="E45" s="67" t="n">
         <v>22</v>
       </c>
-      <c r="F45" s="62" t="n">
+      <c r="F45" s="67" t="n">
         <v>67</v>
       </c>
-      <c r="G45" s="62" t="n">
+      <c r="G45" s="67" t="n">
         <v>20</v>
       </c>
-      <c r="H45" s="62" t="n">
+      <c r="H45" s="67" t="n">
         <v>69</v>
       </c>
-      <c r="I45" s="62" t="n">
+      <c r="I45" s="67" t="n">
         <v>18</v>
       </c>
-      <c r="J45" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="62" t="n">
+      <c r="J45" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="67" t="n">
         <v>89</v>
       </c>
-      <c r="L45" s="62" t="inlineStr">
+      <c r="L45" s="67" t="inlineStr">
         <is>
           <t>25%</t>
         </is>
       </c>
-      <c r="M45" s="62" t="inlineStr">
+      <c r="M45" s="67" t="inlineStr">
         <is>
           <t>22%</t>
         </is>
       </c>
-      <c r="N45" s="62" t="inlineStr">
+      <c r="N45" s="67" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" s="5" t="n"/>
+      <c r="B46" s="5" t="n"/>
+      <c r="C46" s="5" t="n"/>
+      <c r="D46" s="5" t="n"/>
+      <c r="E46" s="5" t="n"/>
+      <c r="F46" s="5" t="n"/>
+      <c r="G46" s="5" t="n"/>
+      <c r="H46" s="5" t="n"/>
+      <c r="I46" s="5" t="n"/>
+      <c r="J46" s="5" t="n"/>
+      <c r="K46" s="5" t="n"/>
+      <c r="L46" s="5" t="n"/>
+      <c r="M46" s="5" t="n"/>
+      <c r="N46" s="5" t="n"/>
+    </row>
+    <row r="47" ht="37" customHeight="1">
+      <c r="A47" s="65" t="inlineStr">
         <is>
           <t>C-276 Summary</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="48" ht="37" customHeight="1">
+      <c r="A48" s="66" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="66" t="inlineStr">
         <is>
           <t>Priority #</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="66" t="inlineStr">
         <is>
           <t>Total Spools</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" s="66" t="inlineStr">
         <is>
           <t>On Hold</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="66" t="inlineStr">
         <is>
           <t>Workable</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="66" t="inlineStr">
         <is>
           <t>Not Workable</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" s="66" t="inlineStr">
         <is>
           <t>Welded Out</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" s="66" t="inlineStr">
         <is>
           <t>Remaining to Weld Out</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I48" s="66" t="inlineStr">
         <is>
           <t>Shipped To Paint</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" s="66" t="inlineStr">
         <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K48" s="66" t="inlineStr">
         <is>
           <t>Remaining to Deliver</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" s="66" t="inlineStr">
         <is>
           <t>Workable %</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M48" s="66" t="inlineStr">
         <is>
           <t>Weld Out %</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N48" s="66" t="inlineStr">
         <is>
           <t>Delivered %</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>13H</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="D49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="G49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="I49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M49" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N49" s="5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="20" customHeight="1">
-      <c r="A50" s="62" t="inlineStr">
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" s="67" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="B50" s="62" t="n"/>
-      <c r="C50" s="62" t="n">
+      <c r="B50" s="67" t="n"/>
+      <c r="C50" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="D50" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="62" t="n">
+      <c r="D50" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="G50" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="62" t="n">
+      <c r="G50" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="I50" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="62" t="n">
+      <c r="I50" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="L50" s="62" t="inlineStr">
+      <c r="L50" s="67" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="M50" s="62" t="inlineStr">
+      <c r="M50" s="67" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="N50" s="62" t="inlineStr">
+      <c r="N50" s="67" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A47:N47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10118,10 +11970,10 @@
           <t>TOTAL SHORTS (ITEM QUANTITIES)</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="63" t="n"/>
-      <c r="D2" s="63" t="n"/>
-      <c r="E2" s="63" t="n"/>
+      <c r="B2" s="68" t="n"/>
+      <c r="C2" s="68" t="n"/>
+      <c r="D2" s="68" t="n"/>
+      <c r="E2" s="68" t="n"/>
     </row>
     <row r="3" ht="24" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
@@ -10373,10 +12225,10 @@
           <t>TOTAL PURCHASED (ITEM QUANTITIES)</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="63" t="n"/>
-      <c r="D2" s="63" t="n"/>
-      <c r="E2" s="63" t="n"/>
+      <c r="B2" s="68" t="n"/>
+      <c r="C2" s="68" t="n"/>
+      <c r="D2" s="68" t="n"/>
+      <c r="E2" s="68" t="n"/>
     </row>
     <row r="3" ht="24" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
@@ -10604,10 +12456,10 @@
           <t>TOTAL NO MATERIAL (ITEM QUANTITIES)</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="63" t="n"/>
-      <c r="D2" s="63" t="n"/>
-      <c r="E2" s="63" t="n"/>
+      <c r="B2" s="68" t="n"/>
+      <c r="C2" s="68" t="n"/>
+      <c r="D2" s="68" t="n"/>
+      <c r="E2" s="68" t="n"/>
     </row>
     <row r="3" ht="24" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
@@ -10815,10 +12667,10 @@
           <t>SPOOLS MISSING VALVE ONLY</t>
         </is>
       </c>
-      <c r="B1" s="63" t="n"/>
-      <c r="C1" s="63" t="n"/>
-      <c r="D1" s="63" t="n"/>
-      <c r="E1" s="63" t="n"/>
+      <c r="B1" s="68" t="n"/>
+      <c r="C1" s="68" t="n"/>
+      <c r="D1" s="68" t="n"/>
+      <c r="E1" s="68" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
@@ -10923,10 +12775,10 @@
           <t>* What item is holding up the spool and who is responsible for it?</t>
         </is>
       </c>
-      <c r="B2" s="63" t="n"/>
-      <c r="C2" s="63" t="n"/>
-      <c r="D2" s="63" t="n"/>
-      <c r="E2" s="63" t="n"/>
+      <c r="B2" s="68" t="n"/>
+      <c r="C2" s="68" t="n"/>
+      <c r="D2" s="68" t="n"/>
+      <c r="E2" s="68" t="n"/>
       <c r="F2" s="19" t="n"/>
     </row>
     <row r="3" ht="24" customHeight="1">
